--- a/Asset Allocations.xlsx
+++ b/Asset Allocations.xlsx
@@ -1,17 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rskufca\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08E03B7-6126-4BAC-895D-D2132744C9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="23055" yWindow="165" windowWidth="27285" windowHeight="20700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Retirement" sheetId="1" r:id="rId3"/>
+    <sheet name="Retirement" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="43">
   <si>
     <t>Tax-Type</t>
   </si>
@@ -58,16 +81,7 @@
     <t>Ron 401K</t>
   </si>
   <si>
-    <t>State Street US Bond Index Non-Lending Series Fund; Class A</t>
-  </si>
-  <si>
     <t>Bonds</t>
-  </si>
-  <si>
-    <t>State Street S&amp;P 500 Index Non-Lending Series Fund; Class A Shares</t>
-  </si>
-  <si>
-    <t>US Stocks</t>
   </si>
   <si>
     <t>Michelle IRA</t>
@@ -138,72 +152,117 @@
   <si>
     <t>US Real Estate</t>
   </si>
+  <si>
+    <t>FID 500 Index</t>
+  </si>
+  <si>
+    <t>FXAIX</t>
+  </si>
+  <si>
+    <t>US Large Value</t>
+  </si>
+  <si>
+    <t>YTD Return</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -211,7 +270,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -220,146 +279,138 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
-    <border/>
+  <borders count="4">
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -369,76 +420,155 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="4285F4"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E159-4844-84D4-210C7A9CF866}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="DB4437"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E159-4844-84D4-210C7A9CF866}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="F4B400"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-E159-4844-84D4-210C7A9CF866}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="0F9D58"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-E159-4844-84D4-210C7A9CF866}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF6D00"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-E159-4844-84D4-210C7A9CF866}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="46BDC6"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-E159-4844-84D4-210C7A9CF866}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="AB30C4"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-E159-4844-84D4-210C7A9CF866}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-E159-4844-84D4-210C7A9CF866}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-E159-4844-84D4-210C7A9CF866}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-E159-4844-84D4-210C7A9CF866}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-E159-4844-84D4-210C7A9CF866}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000012-E159-4844-84D4-210C7A9CF866}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -446,18 +576,74 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Retirement!$C$26:$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>US Large Blend</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>US Stocks Dividends</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Foreign Large Blend</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Foreign  Emerging Markets</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>US Bonds</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cash</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>US Real Estate</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Retirement!$E$26:$E$37</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>91529.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66184.89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27819.620000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9613.7999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7023.98</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18341.580000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16582.400000000001</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-E159-4844-84D4-210C7A9CF866}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -466,6 +652,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
@@ -485,16 +672,1053 @@
               <a:latin typeface="Roboto"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet3!$B$27:$C$38</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Sheet3!$C$27:$C$38</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet3!$C$27:$C$38</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>US Large Blend</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>US Large Value</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Foreign Large Blend</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Foreign  Emerging Markets</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>US Bonds</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cash</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>US Real Estate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$27:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>92458.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70053.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27430.22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7952.36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37940.15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11343</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9658-438D-BFF8-9D87ED982F93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -503,9 +1727,15 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="8115300" cy="5019675"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
+        <xdr:cNvPr id="2" name="Chart 1" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -514,7 +1744,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -523,27 +1753,366 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>754062</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3114674</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B4DD7C0-53F6-4126-0C38-F504093AD798}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K997"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.75"/>
-    <col customWidth="1" min="2" max="2" width="17.5"/>
-    <col customWidth="1" min="3" max="3" width="18.25"/>
-    <col customWidth="1" min="4" max="4" width="11.13"/>
-    <col customWidth="1" min="5" max="5" width="41.88"/>
-    <col customWidth="1" min="6" max="6" width="55.0"/>
-    <col customWidth="1" min="7" max="7" width="14.0"/>
-    <col customWidth="1" min="11" max="11" width="14.13"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="41.85546875" customWidth="1"/>
+    <col min="6" max="6" width="55" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,7 +2134,7 @@
       <c r="G1" s="3"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -574,7 +2143,7 @@
       <c r="G2" s="3"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
@@ -593,7 +2162,7 @@
       <c r="G3" s="3"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
       <c r="C4" s="6">
         <v>59211.68</v>
@@ -610,7 +2179,7 @@
       <c r="G4" s="3"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
@@ -619,162 +2188,158 @@
       <c r="G5" s="3"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6">
-        <v>2449.79</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>16</v>
+      <c r="C6" s="41">
+        <v>7023.98</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="G6" s="3"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5"/>
-      <c r="C7" s="10">
-        <v>2732.75</v>
-      </c>
+      <c r="C7" s="42"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="3"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="7"/>
       <c r="F8" s="5"/>
       <c r="G8" s="3"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="11">
+        <v>16</v>
+      </c>
+      <c r="C9" s="10">
         <v>32318.15</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="3"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10">
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
       <c r="G10" s="3"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
       <c r="G11" s="3"/>
       <c r="J11" s="4"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="10">
+        <v>58114.400000000001</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" s="11">
-        <v>58114.4</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>25</v>
       </c>
       <c r="G12" s="3"/>
       <c r="J12" s="4"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="16">
-        <v>16582.4</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>27</v>
+      <c r="C13" s="15">
+        <v>16582.400000000001</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G13" s="3"/>
       <c r="J13" s="4"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="18"/>
+      <c r="F14" s="17"/>
       <c r="G14" s="3"/>
       <c r="J14" s="4"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="10">
+        <v>9613.7999999999993</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="18" t="s">
         <v>29</v>
-      </c>
-      <c r="C15" s="11">
-        <v>9613.8</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>32</v>
       </c>
       <c r="G15" s="3"/>
       <c r="J15" s="4"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>5928.47</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -787,100 +2352,100 @@
       <c r="J16" s="4"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="5"/>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>8070.49</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>23</v>
+      <c r="D17" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="G17" s="3"/>
       <c r="J17" s="4"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G18" s="3"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="11">
-        <v>18341.58</v>
+        <v>30</v>
+      </c>
+      <c r="C19" s="10">
+        <v>18341.580000000002</v>
       </c>
       <c r="G19" s="3"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="3"/>
       <c r="G20" s="3"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
-      <c r="B21" s="20" t="s">
-        <v>34</v>
+      <c r="B21" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="C21" s="3">
         <f>SUM(C3:C19)</f>
-        <v>235254.66</v>
+        <v>237096.09999999998</v>
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22">
-      <c r="C22" s="21"/>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="20"/>
       <c r="G22" s="3"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="21"/>
+      <c r="B24" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
       <c r="G24" s="3"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25">
-      <c r="B25" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
       <c r="G25" s="3"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26">
-      <c r="C26" s="26" t="s">
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="27"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="3">
         <f>SUM(C4,C7, C9)</f>
-        <v>94262.58</v>
+        <v>91529.83</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27">
-      <c r="C27" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="27"/>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="26"/>
       <c r="E27" s="3">
         <f>SUM(C12,C17)</f>
         <v>66184.89</v>
@@ -888,4970 +2453,5347 @@
       <c r="G27" s="3"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28">
-      <c r="B28" s="26"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="29"/>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="25"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="28"/>
       <c r="G28" s="3"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29">
-      <c r="B29" s="26"/>
-      <c r="D29" s="28"/>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="25"/>
+      <c r="D29" s="27"/>
       <c r="G29" s="3"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30">
-      <c r="B30" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="28"/>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="27"/>
       <c r="G30" s="3"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="28"/>
+      <c r="D31" s="27"/>
       <c r="E31" s="3">
-        <f>sum(C3,C16)</f>
-        <v>27819.62</v>
+        <f>SUM(C3,C16)</f>
+        <v>27819.620000000003</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32">
-      <c r="C32" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="31"/>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="30"/>
       <c r="E32" s="3">
-        <f>sum(C15)</f>
-        <v>9613.8</v>
+        <f>SUM(C15)</f>
+        <v>9613.7999999999993</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33">
-      <c r="B33" s="26"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="29"/>
-      <c r="G33" s="32"/>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="25"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="28"/>
+      <c r="G33" s="31"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34">
-      <c r="B34" s="26"/>
-      <c r="D34" s="28"/>
-      <c r="G34" s="32"/>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="25"/>
+      <c r="D34" s="27"/>
+      <c r="G34" s="31"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35">
-      <c r="B35" s="26" t="s">
-        <v>16</v>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="25" t="s">
+        <v>15</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="16">
+        <v>37</v>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="15">
         <f>(C6)</f>
-        <v>2449.79</v>
-      </c>
-      <c r="G35" s="32"/>
+        <v>7023.98</v>
+      </c>
+      <c r="G35" s="31"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36">
-      <c r="B36" s="26" t="s">
-        <v>33</v>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="25" t="s">
+        <v>30</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="16">
-        <f>sum(C19)</f>
-        <v>18341.58</v>
-      </c>
-      <c r="G36" s="32"/>
+        <v>30</v>
+      </c>
+      <c r="D36" s="27"/>
+      <c r="E36" s="15">
+        <f>SUM(C19)</f>
+        <v>18341.580000000002</v>
+      </c>
+      <c r="G36" s="31"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="37">
-      <c r="B37" s="26" t="s">
-        <v>28</v>
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="33"/>
+        <v>38</v>
+      </c>
+      <c r="D37" s="32"/>
       <c r="E37" s="3">
-        <f>sum(C13)</f>
-        <v>16582.4</v>
-      </c>
-      <c r="F37" s="27"/>
-    </row>
-    <row r="38">
-      <c r="C38" s="34"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="G38" s="35"/>
-    </row>
-    <row r="39">
+        <f>SUM(C13)</f>
+        <v>16582.400000000001</v>
+      </c>
+      <c r="F37" s="26"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="33"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="G38" s="34"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="4"/>
-      <c r="G39" s="16"/>
+      <c r="G39" s="15"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40">
-      <c r="C40" s="36"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="G40" s="16"/>
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="35"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="G40" s="15"/>
       <c r="I40" s="5"/>
       <c r="J40" s="4"/>
     </row>
-    <row r="41">
-      <c r="B41" s="16"/>
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="15"/>
       <c r="C41" s="3"/>
-      <c r="G41" s="16"/>
+      <c r="G41" s="15"/>
       <c r="I41" s="5"/>
       <c r="J41" s="4"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="G42" s="16"/>
+      <c r="G42" s="15"/>
       <c r="I42" s="5"/>
       <c r="J42" s="4"/>
     </row>
-    <row r="43">
-      <c r="B43" s="16"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="16"/>
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="15"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="15"/>
       <c r="I43" s="5"/>
       <c r="J43" s="4"/>
     </row>
-    <row r="44">
-      <c r="B44" s="16"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="16"/>
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="15"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="15"/>
       <c r="J44" s="4"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
-      <c r="G45" s="16"/>
+      <c r="G45" s="15"/>
       <c r="J45" s="4"/>
     </row>
-    <row r="46">
-      <c r="A46" s="38"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="G46" s="16"/>
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="37"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="G46" s="15"/>
       <c r="J46" s="4"/>
     </row>
-    <row r="47">
-      <c r="A47" s="38"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="16"/>
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="37"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="15"/>
       <c r="H47" s="5"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48">
-      <c r="B48" s="16"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="30"/>
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="15"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="29"/>
       <c r="G48" s="3"/>
-      <c r="J48" s="16"/>
-    </row>
-    <row r="49">
-      <c r="B49" s="16"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
+      <c r="J48" s="15"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="15"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
       <c r="G49" s="3"/>
-      <c r="J49" s="16"/>
-    </row>
-    <row r="50">
-      <c r="B50" s="16"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="39"/>
+      <c r="J49" s="15"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="15"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="38"/>
       <c r="G50" s="3"/>
       <c r="J50" s="4"/>
     </row>
-    <row r="51">
-      <c r="B51" s="16"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="39"/>
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="15"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="38"/>
       <c r="G51" s="3"/>
       <c r="J51" s="3"/>
     </row>
-    <row r="52">
-      <c r="B52" s="16"/>
+    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="15"/>
       <c r="C52" s="3"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="41"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="40"/>
       <c r="G52" s="3"/>
       <c r="J52" s="3"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="G53" s="3"/>
       <c r="J53" s="3"/>
     </row>
-    <row r="54">
-      <c r="B54" s="16"/>
+    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="15"/>
       <c r="C54" s="3"/>
-      <c r="F54" s="39"/>
+      <c r="F54" s="38"/>
       <c r="G54" s="3"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55">
-      <c r="B55" s="16"/>
+    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="15"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="39"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="38"/>
       <c r="G55" s="3"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56">
-      <c r="A56" s="20"/>
-      <c r="B56" s="16"/>
+    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="19"/>
+      <c r="B56" s="15"/>
       <c r="C56" s="3"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="G56" s="3"/>
       <c r="J56" s="4"/>
     </row>
-    <row r="57">
-      <c r="A57" s="20"/>
-      <c r="B57" s="16"/>
+    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="19"/>
+      <c r="B57" s="15"/>
       <c r="C57" s="3"/>
       <c r="G57" s="3"/>
       <c r="J57" s="4"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="G58" s="3"/>
       <c r="J58" s="4"/>
     </row>
-    <row r="59">
-      <c r="A59" s="20"/>
-      <c r="B59" s="11"/>
+    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="19"/>
+      <c r="B59" s="10"/>
       <c r="C59" s="3"/>
       <c r="G59" s="3"/>
       <c r="J59" s="4"/>
     </row>
-    <row r="60">
-      <c r="A60" s="20"/>
-      <c r="B60" s="16"/>
+    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="19"/>
+      <c r="B60" s="15"/>
       <c r="C60" s="3"/>
       <c r="G60" s="3"/>
       <c r="J60" s="4"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="G61" s="3"/>
       <c r="J61" s="4"/>
     </row>
-    <row r="62">
-      <c r="A62" s="20"/>
+    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="19"/>
       <c r="C62" s="3"/>
       <c r="G62" s="3"/>
       <c r="J62" s="4"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="G63" s="3"/>
       <c r="J63" s="4"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="G64" s="3"/>
       <c r="J64" s="4"/>
     </row>
-    <row r="65">
+    <row r="65" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="G65" s="3"/>
       <c r="J65" s="4"/>
     </row>
-    <row r="66">
+    <row r="66" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="G66" s="3"/>
       <c r="J66" s="4"/>
     </row>
-    <row r="67">
+    <row r="67" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="G67" s="3"/>
       <c r="J67" s="4"/>
     </row>
-    <row r="68">
+    <row r="68" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="G68" s="3"/>
       <c r="J68" s="4"/>
     </row>
-    <row r="69">
+    <row r="69" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="G69" s="3"/>
       <c r="J69" s="4"/>
     </row>
-    <row r="70">
+    <row r="70" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="G70" s="3"/>
       <c r="J70" s="4"/>
     </row>
-    <row r="71">
+    <row r="71" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="G71" s="3"/>
       <c r="J71" s="4"/>
     </row>
-    <row r="72">
+    <row r="72" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="G72" s="3"/>
       <c r="J72" s="4"/>
     </row>
-    <row r="73">
+    <row r="73" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="G73" s="3"/>
       <c r="J73" s="4"/>
     </row>
-    <row r="74">
+    <row r="74" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="G74" s="3"/>
       <c r="J74" s="4"/>
     </row>
-    <row r="75">
+    <row r="75" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="G75" s="3"/>
       <c r="J75" s="4"/>
     </row>
-    <row r="76">
+    <row r="76" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="G76" s="3"/>
       <c r="J76" s="4"/>
     </row>
-    <row r="77">
+    <row r="77" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="G77" s="3"/>
       <c r="J77" s="4"/>
     </row>
-    <row r="78">
+    <row r="78" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="G78" s="3"/>
       <c r="J78" s="4"/>
     </row>
-    <row r="79">
+    <row r="79" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="G79" s="3"/>
       <c r="J79" s="4"/>
     </row>
-    <row r="80">
+    <row r="80" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="G80" s="3"/>
       <c r="J80" s="4"/>
     </row>
-    <row r="81">
+    <row r="81" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="G81" s="3"/>
       <c r="J81" s="4"/>
     </row>
-    <row r="82">
+    <row r="82" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="G82" s="3"/>
       <c r="J82" s="4"/>
     </row>
-    <row r="83">
+    <row r="83" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="G83" s="3"/>
       <c r="J83" s="4"/>
     </row>
-    <row r="84">
+    <row r="84" spans="3:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="G84" s="3"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85">
+    <row r="85" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="G85" s="3"/>
       <c r="J85" s="4"/>
     </row>
-    <row r="86">
+    <row r="86" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="G86" s="3"/>
       <c r="J86" s="4"/>
     </row>
-    <row r="87">
+    <row r="87" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="G87" s="3"/>
       <c r="J87" s="4"/>
     </row>
-    <row r="88">
+    <row r="88" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="G88" s="3"/>
       <c r="J88" s="4"/>
     </row>
-    <row r="89">
+    <row r="89" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="G89" s="3"/>
       <c r="J89" s="4"/>
     </row>
-    <row r="90">
+    <row r="90" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="G90" s="3"/>
       <c r="J90" s="4"/>
     </row>
-    <row r="91">
+    <row r="91" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="G91" s="3"/>
       <c r="J91" s="4"/>
     </row>
-    <row r="92">
+    <row r="92" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="G92" s="3"/>
       <c r="J92" s="4"/>
     </row>
-    <row r="93">
+    <row r="93" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="G93" s="3"/>
       <c r="J93" s="4"/>
     </row>
-    <row r="94">
+    <row r="94" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="G94" s="3"/>
       <c r="J94" s="4"/>
     </row>
-    <row r="95">
+    <row r="95" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="G95" s="3"/>
       <c r="J95" s="4"/>
     </row>
-    <row r="96">
+    <row r="96" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="G96" s="3"/>
       <c r="J96" s="4"/>
     </row>
-    <row r="97">
+    <row r="97" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="G97" s="3"/>
       <c r="J97" s="4"/>
     </row>
-    <row r="98">
+    <row r="98" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="G98" s="3"/>
       <c r="J98" s="4"/>
     </row>
-    <row r="99">
+    <row r="99" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="G99" s="3"/>
       <c r="J99" s="4"/>
     </row>
-    <row r="100">
+    <row r="100" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="G100" s="3"/>
       <c r="J100" s="4"/>
     </row>
-    <row r="101">
+    <row r="101" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="G101" s="3"/>
       <c r="J101" s="4"/>
     </row>
-    <row r="102">
+    <row r="102" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="G102" s="3"/>
       <c r="J102" s="4"/>
     </row>
-    <row r="103">
+    <row r="103" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="G103" s="3"/>
       <c r="J103" s="4"/>
     </row>
-    <row r="104">
+    <row r="104" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="G104" s="3"/>
       <c r="J104" s="4"/>
     </row>
-    <row r="105">
+    <row r="105" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="G105" s="3"/>
       <c r="J105" s="4"/>
     </row>
-    <row r="106">
+    <row r="106" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="G106" s="3"/>
       <c r="J106" s="4"/>
     </row>
-    <row r="107">
+    <row r="107" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="G107" s="3"/>
       <c r="J107" s="4"/>
     </row>
-    <row r="108">
+    <row r="108" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="G108" s="3"/>
       <c r="J108" s="4"/>
     </row>
-    <row r="109">
+    <row r="109" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="G109" s="3"/>
       <c r="J109" s="4"/>
     </row>
-    <row r="110">
+    <row r="110" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="G110" s="3"/>
       <c r="J110" s="4"/>
     </row>
-    <row r="111">
+    <row r="111" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="G111" s="3"/>
       <c r="J111" s="4"/>
     </row>
-    <row r="112">
+    <row r="112" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="G112" s="3"/>
       <c r="J112" s="4"/>
     </row>
-    <row r="113">
+    <row r="113" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="G113" s="3"/>
       <c r="J113" s="4"/>
     </row>
-    <row r="114">
+    <row r="114" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="G114" s="3"/>
       <c r="J114" s="4"/>
     </row>
-    <row r="115">
+    <row r="115" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="G115" s="3"/>
       <c r="J115" s="4"/>
     </row>
-    <row r="116">
+    <row r="116" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="G116" s="3"/>
       <c r="J116" s="4"/>
     </row>
-    <row r="117">
+    <row r="117" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="G117" s="3"/>
       <c r="J117" s="4"/>
     </row>
-    <row r="118">
+    <row r="118" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="G118" s="3"/>
       <c r="J118" s="4"/>
     </row>
-    <row r="119">
+    <row r="119" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="G119" s="3"/>
       <c r="J119" s="4"/>
     </row>
-    <row r="120">
+    <row r="120" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="G120" s="3"/>
       <c r="J120" s="4"/>
     </row>
-    <row r="121">
+    <row r="121" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="G121" s="3"/>
       <c r="J121" s="4"/>
     </row>
-    <row r="122">
+    <row r="122" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="G122" s="3"/>
       <c r="J122" s="4"/>
     </row>
-    <row r="123">
+    <row r="123" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="G123" s="3"/>
       <c r="J123" s="4"/>
     </row>
-    <row r="124">
+    <row r="124" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="G124" s="3"/>
       <c r="J124" s="4"/>
     </row>
-    <row r="125">
+    <row r="125" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="G125" s="3"/>
       <c r="J125" s="4"/>
     </row>
-    <row r="126">
+    <row r="126" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="G126" s="3"/>
       <c r="J126" s="4"/>
     </row>
-    <row r="127">
+    <row r="127" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="G127" s="3"/>
       <c r="J127" s="4"/>
     </row>
-    <row r="128">
+    <row r="128" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="G128" s="3"/>
       <c r="J128" s="4"/>
     </row>
-    <row r="129">
+    <row r="129" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="G129" s="3"/>
       <c r="J129" s="4"/>
     </row>
-    <row r="130">
+    <row r="130" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="G130" s="3"/>
       <c r="J130" s="4"/>
     </row>
-    <row r="131">
+    <row r="131" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="G131" s="3"/>
       <c r="J131" s="4"/>
     </row>
-    <row r="132">
+    <row r="132" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="G132" s="3"/>
       <c r="J132" s="4"/>
     </row>
-    <row r="133">
+    <row r="133" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="G133" s="3"/>
       <c r="J133" s="4"/>
     </row>
-    <row r="134">
+    <row r="134" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="G134" s="3"/>
       <c r="J134" s="4"/>
     </row>
-    <row r="135">
+    <row r="135" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="G135" s="3"/>
       <c r="J135" s="4"/>
     </row>
-    <row r="136">
+    <row r="136" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="G136" s="3"/>
       <c r="J136" s="4"/>
     </row>
-    <row r="137">
+    <row r="137" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="G137" s="3"/>
       <c r="J137" s="4"/>
     </row>
-    <row r="138">
+    <row r="138" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="G138" s="3"/>
       <c r="J138" s="4"/>
     </row>
-    <row r="139">
+    <row r="139" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="G139" s="3"/>
       <c r="J139" s="4"/>
     </row>
-    <row r="140">
+    <row r="140" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="G140" s="3"/>
       <c r="J140" s="4"/>
     </row>
-    <row r="141">
+    <row r="141" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="G141" s="3"/>
       <c r="J141" s="4"/>
     </row>
-    <row r="142">
+    <row r="142" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="G142" s="3"/>
       <c r="J142" s="4"/>
     </row>
-    <row r="143">
+    <row r="143" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="G143" s="3"/>
       <c r="J143" s="4"/>
     </row>
-    <row r="144">
+    <row r="144" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="G144" s="3"/>
       <c r="J144" s="4"/>
     </row>
-    <row r="145">
+    <row r="145" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="G145" s="3"/>
       <c r="J145" s="4"/>
     </row>
-    <row r="146">
+    <row r="146" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="G146" s="3"/>
       <c r="J146" s="4"/>
     </row>
-    <row r="147">
+    <row r="147" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="G147" s="3"/>
       <c r="J147" s="4"/>
     </row>
-    <row r="148">
+    <row r="148" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="G148" s="3"/>
       <c r="J148" s="4"/>
     </row>
-    <row r="149">
+    <row r="149" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="G149" s="3"/>
       <c r="J149" s="4"/>
     </row>
-    <row r="150">
+    <row r="150" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="G150" s="3"/>
       <c r="J150" s="4"/>
     </row>
-    <row r="151">
+    <row r="151" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="G151" s="3"/>
       <c r="J151" s="4"/>
     </row>
-    <row r="152">
+    <row r="152" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="G152" s="3"/>
       <c r="J152" s="4"/>
     </row>
-    <row r="153">
+    <row r="153" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="G153" s="3"/>
       <c r="J153" s="4"/>
     </row>
-    <row r="154">
+    <row r="154" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="G154" s="3"/>
       <c r="J154" s="4"/>
     </row>
-    <row r="155">
+    <row r="155" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="G155" s="3"/>
       <c r="J155" s="4"/>
     </row>
-    <row r="156">
+    <row r="156" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="G156" s="3"/>
       <c r="J156" s="4"/>
     </row>
-    <row r="157">
+    <row r="157" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="G157" s="3"/>
       <c r="J157" s="4"/>
     </row>
-    <row r="158">
+    <row r="158" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="G158" s="3"/>
       <c r="J158" s="4"/>
     </row>
-    <row r="159">
+    <row r="159" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="G159" s="3"/>
       <c r="J159" s="4"/>
     </row>
-    <row r="160">
+    <row r="160" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="G160" s="3"/>
       <c r="J160" s="4"/>
     </row>
-    <row r="161">
+    <row r="161" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="G161" s="3"/>
       <c r="J161" s="4"/>
     </row>
-    <row r="162">
+    <row r="162" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="G162" s="3"/>
       <c r="J162" s="4"/>
     </row>
-    <row r="163">
+    <row r="163" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="G163" s="3"/>
       <c r="J163" s="4"/>
     </row>
-    <row r="164">
+    <row r="164" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="G164" s="3"/>
       <c r="J164" s="4"/>
     </row>
-    <row r="165">
+    <row r="165" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="G165" s="3"/>
       <c r="J165" s="4"/>
     </row>
-    <row r="166">
+    <row r="166" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="G166" s="3"/>
       <c r="J166" s="4"/>
     </row>
-    <row r="167">
+    <row r="167" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="G167" s="3"/>
       <c r="J167" s="4"/>
     </row>
-    <row r="168">
+    <row r="168" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="G168" s="3"/>
       <c r="J168" s="4"/>
     </row>
-    <row r="169">
+    <row r="169" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="G169" s="3"/>
       <c r="J169" s="4"/>
     </row>
-    <row r="170">
+    <row r="170" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="G170" s="3"/>
       <c r="J170" s="4"/>
     </row>
-    <row r="171">
+    <row r="171" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="G171" s="3"/>
       <c r="J171" s="4"/>
     </row>
-    <row r="172">
+    <row r="172" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="G172" s="3"/>
       <c r="J172" s="4"/>
     </row>
-    <row r="173">
+    <row r="173" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="G173" s="3"/>
       <c r="J173" s="4"/>
     </row>
-    <row r="174">
+    <row r="174" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="G174" s="3"/>
       <c r="J174" s="4"/>
     </row>
-    <row r="175">
+    <row r="175" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="G175" s="3"/>
       <c r="J175" s="4"/>
     </row>
-    <row r="176">
+    <row r="176" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="G176" s="3"/>
       <c r="J176" s="4"/>
     </row>
-    <row r="177">
+    <row r="177" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="G177" s="3"/>
       <c r="J177" s="4"/>
     </row>
-    <row r="178">
+    <row r="178" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="G178" s="3"/>
       <c r="J178" s="4"/>
     </row>
-    <row r="179">
+    <row r="179" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="G179" s="3"/>
       <c r="J179" s="4"/>
     </row>
-    <row r="180">
+    <row r="180" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="G180" s="3"/>
       <c r="J180" s="4"/>
     </row>
-    <row r="181">
+    <row r="181" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="G181" s="3"/>
       <c r="J181" s="4"/>
     </row>
-    <row r="182">
+    <row r="182" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="G182" s="3"/>
       <c r="J182" s="4"/>
     </row>
-    <row r="183">
+    <row r="183" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="G183" s="3"/>
       <c r="J183" s="4"/>
     </row>
-    <row r="184">
+    <row r="184" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="G184" s="3"/>
       <c r="J184" s="4"/>
     </row>
-    <row r="185">
+    <row r="185" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="G185" s="3"/>
       <c r="J185" s="4"/>
     </row>
-    <row r="186">
+    <row r="186" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="G186" s="3"/>
       <c r="J186" s="4"/>
     </row>
-    <row r="187">
+    <row r="187" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="G187" s="3"/>
       <c r="J187" s="4"/>
     </row>
-    <row r="188">
+    <row r="188" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="G188" s="3"/>
       <c r="J188" s="4"/>
     </row>
-    <row r="189">
+    <row r="189" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="G189" s="3"/>
       <c r="J189" s="4"/>
     </row>
-    <row r="190">
+    <row r="190" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="G190" s="3"/>
       <c r="J190" s="4"/>
     </row>
-    <row r="191">
+    <row r="191" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="G191" s="3"/>
       <c r="J191" s="4"/>
     </row>
-    <row r="192">
+    <row r="192" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="G192" s="3"/>
       <c r="J192" s="4"/>
     </row>
-    <row r="193">
+    <row r="193" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="G193" s="3"/>
       <c r="J193" s="4"/>
     </row>
-    <row r="194">
+    <row r="194" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="G194" s="3"/>
       <c r="J194" s="4"/>
     </row>
-    <row r="195">
+    <row r="195" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="G195" s="3"/>
       <c r="J195" s="4"/>
     </row>
-    <row r="196">
+    <row r="196" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="G196" s="3"/>
       <c r="J196" s="4"/>
     </row>
-    <row r="197">
+    <row r="197" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="G197" s="3"/>
       <c r="J197" s="4"/>
     </row>
-    <row r="198">
+    <row r="198" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="G198" s="3"/>
       <c r="J198" s="4"/>
     </row>
-    <row r="199">
+    <row r="199" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="G199" s="3"/>
       <c r="J199" s="4"/>
     </row>
-    <row r="200">
+    <row r="200" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="G200" s="3"/>
       <c r="J200" s="4"/>
     </row>
-    <row r="201">
+    <row r="201" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="G201" s="3"/>
       <c r="J201" s="4"/>
     </row>
-    <row r="202">
+    <row r="202" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="G202" s="3"/>
       <c r="J202" s="4"/>
     </row>
-    <row r="203">
+    <row r="203" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="G203" s="3"/>
       <c r="J203" s="4"/>
     </row>
-    <row r="204">
+    <row r="204" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="G204" s="3"/>
       <c r="J204" s="4"/>
     </row>
-    <row r="205">
+    <row r="205" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="G205" s="3"/>
       <c r="J205" s="4"/>
     </row>
-    <row r="206">
+    <row r="206" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="G206" s="3"/>
       <c r="J206" s="4"/>
     </row>
-    <row r="207">
+    <row r="207" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="G207" s="3"/>
       <c r="J207" s="4"/>
     </row>
-    <row r="208">
+    <row r="208" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="G208" s="3"/>
       <c r="J208" s="4"/>
     </row>
-    <row r="209">
+    <row r="209" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="G209" s="3"/>
       <c r="J209" s="4"/>
     </row>
-    <row r="210">
+    <row r="210" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="G210" s="3"/>
       <c r="J210" s="4"/>
     </row>
-    <row r="211">
+    <row r="211" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="G211" s="3"/>
       <c r="J211" s="4"/>
     </row>
-    <row r="212">
+    <row r="212" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="G212" s="3"/>
       <c r="J212" s="4"/>
     </row>
-    <row r="213">
+    <row r="213" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="G213" s="3"/>
       <c r="J213" s="4"/>
     </row>
-    <row r="214">
+    <row r="214" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="G214" s="3"/>
       <c r="J214" s="4"/>
     </row>
-    <row r="215">
+    <row r="215" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="G215" s="3"/>
       <c r="J215" s="4"/>
     </row>
-    <row r="216">
+    <row r="216" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="G216" s="3"/>
       <c r="J216" s="4"/>
     </row>
-    <row r="217">
+    <row r="217" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="G217" s="3"/>
       <c r="J217" s="4"/>
     </row>
-    <row r="218">
+    <row r="218" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="G218" s="3"/>
       <c r="J218" s="4"/>
     </row>
-    <row r="219">
+    <row r="219" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="G219" s="3"/>
       <c r="J219" s="4"/>
     </row>
-    <row r="220">
+    <row r="220" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="G220" s="3"/>
       <c r="J220" s="4"/>
     </row>
-    <row r="221">
+    <row r="221" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="G221" s="3"/>
       <c r="J221" s="4"/>
     </row>
-    <row r="222">
+    <row r="222" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="G222" s="3"/>
       <c r="J222" s="4"/>
     </row>
-    <row r="223">
+    <row r="223" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="G223" s="3"/>
       <c r="J223" s="4"/>
     </row>
-    <row r="224">
+    <row r="224" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="G224" s="3"/>
       <c r="J224" s="4"/>
     </row>
-    <row r="225">
+    <row r="225" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="G225" s="3"/>
       <c r="J225" s="4"/>
     </row>
-    <row r="226">
+    <row r="226" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="G226" s="3"/>
       <c r="J226" s="4"/>
     </row>
-    <row r="227">
+    <row r="227" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="G227" s="3"/>
       <c r="J227" s="4"/>
     </row>
-    <row r="228">
+    <row r="228" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="G228" s="3"/>
       <c r="J228" s="4"/>
     </row>
-    <row r="229">
+    <row r="229" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="G229" s="3"/>
       <c r="J229" s="4"/>
     </row>
-    <row r="230">
+    <row r="230" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="G230" s="3"/>
       <c r="J230" s="4"/>
     </row>
-    <row r="231">
+    <row r="231" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="G231" s="3"/>
       <c r="J231" s="4"/>
     </row>
-    <row r="232">
+    <row r="232" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="G232" s="3"/>
       <c r="J232" s="4"/>
     </row>
-    <row r="233">
+    <row r="233" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="G233" s="3"/>
       <c r="J233" s="4"/>
     </row>
-    <row r="234">
+    <row r="234" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="G234" s="3"/>
       <c r="J234" s="4"/>
     </row>
-    <row r="235">
+    <row r="235" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="G235" s="3"/>
       <c r="J235" s="4"/>
     </row>
-    <row r="236">
+    <row r="236" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="G236" s="3"/>
       <c r="J236" s="4"/>
     </row>
-    <row r="237">
+    <row r="237" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="G237" s="3"/>
       <c r="J237" s="4"/>
     </row>
-    <row r="238">
+    <row r="238" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="G238" s="3"/>
       <c r="J238" s="4"/>
     </row>
-    <row r="239">
+    <row r="239" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="G239" s="3"/>
       <c r="J239" s="4"/>
     </row>
-    <row r="240">
+    <row r="240" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="G240" s="3"/>
       <c r="J240" s="4"/>
     </row>
-    <row r="241">
+    <row r="241" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="G241" s="3"/>
       <c r="J241" s="4"/>
     </row>
-    <row r="242">
+    <row r="242" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="G242" s="3"/>
       <c r="J242" s="4"/>
     </row>
-    <row r="243">
+    <row r="243" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="G243" s="3"/>
       <c r="J243" s="4"/>
     </row>
-    <row r="244">
+    <row r="244" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="G244" s="3"/>
       <c r="J244" s="4"/>
     </row>
-    <row r="245">
+    <row r="245" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="G245" s="3"/>
       <c r="J245" s="4"/>
     </row>
-    <row r="246">
+    <row r="246" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="G246" s="3"/>
       <c r="J246" s="4"/>
     </row>
-    <row r="247">
+    <row r="247" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="G247" s="3"/>
       <c r="J247" s="4"/>
     </row>
-    <row r="248">
+    <row r="248" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="G248" s="3"/>
       <c r="J248" s="4"/>
     </row>
-    <row r="249">
+    <row r="249" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="G249" s="3"/>
       <c r="J249" s="4"/>
     </row>
-    <row r="250">
+    <row r="250" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="G250" s="3"/>
       <c r="J250" s="4"/>
     </row>
-    <row r="251">
+    <row r="251" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="G251" s="3"/>
       <c r="J251" s="4"/>
     </row>
-    <row r="252">
+    <row r="252" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="G252" s="3"/>
       <c r="J252" s="4"/>
     </row>
-    <row r="253">
+    <row r="253" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="G253" s="3"/>
       <c r="J253" s="4"/>
     </row>
-    <row r="254">
+    <row r="254" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="G254" s="3"/>
       <c r="J254" s="4"/>
     </row>
-    <row r="255">
+    <row r="255" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="G255" s="3"/>
       <c r="J255" s="4"/>
     </row>
-    <row r="256">
+    <row r="256" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="G256" s="3"/>
       <c r="J256" s="4"/>
     </row>
-    <row r="257">
+    <row r="257" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="G257" s="3"/>
       <c r="J257" s="4"/>
     </row>
-    <row r="258">
+    <row r="258" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="G258" s="3"/>
       <c r="J258" s="4"/>
     </row>
-    <row r="259">
+    <row r="259" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="G259" s="3"/>
       <c r="J259" s="4"/>
     </row>
-    <row r="260">
+    <row r="260" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="G260" s="3"/>
       <c r="J260" s="4"/>
     </row>
-    <row r="261">
+    <row r="261" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="G261" s="3"/>
       <c r="J261" s="4"/>
     </row>
-    <row r="262">
+    <row r="262" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="G262" s="3"/>
       <c r="J262" s="4"/>
     </row>
-    <row r="263">
+    <row r="263" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="G263" s="3"/>
       <c r="J263" s="4"/>
     </row>
-    <row r="264">
+    <row r="264" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="G264" s="3"/>
       <c r="J264" s="4"/>
     </row>
-    <row r="265">
+    <row r="265" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="G265" s="3"/>
       <c r="J265" s="4"/>
     </row>
-    <row r="266">
+    <row r="266" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C266" s="3"/>
       <c r="G266" s="3"/>
       <c r="J266" s="4"/>
     </row>
-    <row r="267">
+    <row r="267" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C267" s="3"/>
       <c r="G267" s="3"/>
       <c r="J267" s="4"/>
     </row>
-    <row r="268">
+    <row r="268" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C268" s="3"/>
       <c r="G268" s="3"/>
       <c r="J268" s="4"/>
     </row>
-    <row r="269">
+    <row r="269" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C269" s="3"/>
       <c r="G269" s="3"/>
       <c r="J269" s="4"/>
     </row>
-    <row r="270">
+    <row r="270" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C270" s="3"/>
       <c r="G270" s="3"/>
       <c r="J270" s="4"/>
     </row>
-    <row r="271">
+    <row r="271" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C271" s="3"/>
       <c r="G271" s="3"/>
       <c r="J271" s="4"/>
     </row>
-    <row r="272">
+    <row r="272" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C272" s="3"/>
       <c r="G272" s="3"/>
       <c r="J272" s="4"/>
     </row>
-    <row r="273">
+    <row r="273" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C273" s="3"/>
       <c r="G273" s="3"/>
       <c r="J273" s="4"/>
     </row>
-    <row r="274">
+    <row r="274" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C274" s="3"/>
       <c r="G274" s="3"/>
       <c r="J274" s="4"/>
     </row>
-    <row r="275">
+    <row r="275" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C275" s="3"/>
       <c r="G275" s="3"/>
       <c r="J275" s="4"/>
     </row>
-    <row r="276">
+    <row r="276" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C276" s="3"/>
       <c r="G276" s="3"/>
       <c r="J276" s="4"/>
     </row>
-    <row r="277">
+    <row r="277" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C277" s="3"/>
       <c r="G277" s="3"/>
       <c r="J277" s="4"/>
     </row>
-    <row r="278">
+    <row r="278" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C278" s="3"/>
       <c r="G278" s="3"/>
       <c r="J278" s="4"/>
     </row>
-    <row r="279">
+    <row r="279" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C279" s="3"/>
       <c r="G279" s="3"/>
       <c r="J279" s="4"/>
     </row>
-    <row r="280">
+    <row r="280" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C280" s="3"/>
       <c r="G280" s="3"/>
       <c r="J280" s="4"/>
     </row>
-    <row r="281">
+    <row r="281" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C281" s="3"/>
       <c r="G281" s="3"/>
       <c r="J281" s="4"/>
     </row>
-    <row r="282">
+    <row r="282" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C282" s="3"/>
       <c r="G282" s="3"/>
       <c r="J282" s="4"/>
     </row>
-    <row r="283">
+    <row r="283" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C283" s="3"/>
       <c r="G283" s="3"/>
       <c r="J283" s="4"/>
     </row>
-    <row r="284">
+    <row r="284" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C284" s="3"/>
       <c r="G284" s="3"/>
       <c r="J284" s="4"/>
     </row>
-    <row r="285">
+    <row r="285" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C285" s="3"/>
       <c r="G285" s="3"/>
       <c r="J285" s="4"/>
     </row>
-    <row r="286">
+    <row r="286" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C286" s="3"/>
       <c r="G286" s="3"/>
       <c r="J286" s="4"/>
     </row>
-    <row r="287">
+    <row r="287" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C287" s="3"/>
       <c r="G287" s="3"/>
       <c r="J287" s="4"/>
     </row>
-    <row r="288">
+    <row r="288" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C288" s="3"/>
       <c r="G288" s="3"/>
       <c r="J288" s="4"/>
     </row>
-    <row r="289">
+    <row r="289" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C289" s="3"/>
       <c r="G289" s="3"/>
       <c r="J289" s="4"/>
     </row>
-    <row r="290">
+    <row r="290" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C290" s="3"/>
       <c r="G290" s="3"/>
       <c r="J290" s="4"/>
     </row>
-    <row r="291">
+    <row r="291" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C291" s="3"/>
       <c r="G291" s="3"/>
       <c r="J291" s="4"/>
     </row>
-    <row r="292">
+    <row r="292" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C292" s="3"/>
       <c r="G292" s="3"/>
       <c r="J292" s="4"/>
     </row>
-    <row r="293">
+    <row r="293" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C293" s="3"/>
       <c r="G293" s="3"/>
       <c r="J293" s="4"/>
     </row>
-    <row r="294">
+    <row r="294" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C294" s="3"/>
       <c r="G294" s="3"/>
       <c r="J294" s="4"/>
     </row>
-    <row r="295">
+    <row r="295" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C295" s="3"/>
       <c r="G295" s="3"/>
       <c r="J295" s="4"/>
     </row>
-    <row r="296">
+    <row r="296" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C296" s="3"/>
       <c r="G296" s="3"/>
       <c r="J296" s="4"/>
     </row>
-    <row r="297">
+    <row r="297" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C297" s="3"/>
       <c r="G297" s="3"/>
       <c r="J297" s="4"/>
     </row>
-    <row r="298">
+    <row r="298" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C298" s="3"/>
       <c r="G298" s="3"/>
       <c r="J298" s="4"/>
     </row>
-    <row r="299">
+    <row r="299" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C299" s="3"/>
       <c r="G299" s="3"/>
       <c r="J299" s="4"/>
     </row>
-    <row r="300">
+    <row r="300" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C300" s="3"/>
       <c r="G300" s="3"/>
       <c r="J300" s="4"/>
     </row>
-    <row r="301">
+    <row r="301" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C301" s="3"/>
       <c r="G301" s="3"/>
       <c r="J301" s="4"/>
     </row>
-    <row r="302">
+    <row r="302" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C302" s="3"/>
       <c r="G302" s="3"/>
       <c r="J302" s="4"/>
     </row>
-    <row r="303">
+    <row r="303" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C303" s="3"/>
       <c r="G303" s="3"/>
       <c r="J303" s="4"/>
     </row>
-    <row r="304">
+    <row r="304" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C304" s="3"/>
       <c r="G304" s="3"/>
       <c r="J304" s="4"/>
     </row>
-    <row r="305">
+    <row r="305" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C305" s="3"/>
       <c r="G305" s="3"/>
       <c r="J305" s="4"/>
     </row>
-    <row r="306">
+    <row r="306" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C306" s="3"/>
       <c r="G306" s="3"/>
       <c r="J306" s="4"/>
     </row>
-    <row r="307">
+    <row r="307" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C307" s="3"/>
       <c r="G307" s="3"/>
       <c r="J307" s="4"/>
     </row>
-    <row r="308">
+    <row r="308" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C308" s="3"/>
       <c r="G308" s="3"/>
       <c r="J308" s="4"/>
     </row>
-    <row r="309">
+    <row r="309" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C309" s="3"/>
       <c r="G309" s="3"/>
       <c r="J309" s="4"/>
     </row>
-    <row r="310">
+    <row r="310" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C310" s="3"/>
       <c r="G310" s="3"/>
       <c r="J310" s="4"/>
     </row>
-    <row r="311">
+    <row r="311" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C311" s="3"/>
       <c r="G311" s="3"/>
       <c r="J311" s="4"/>
     </row>
-    <row r="312">
+    <row r="312" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C312" s="3"/>
       <c r="G312" s="3"/>
       <c r="J312" s="4"/>
     </row>
-    <row r="313">
+    <row r="313" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C313" s="3"/>
       <c r="G313" s="3"/>
       <c r="J313" s="4"/>
     </row>
-    <row r="314">
+    <row r="314" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C314" s="3"/>
       <c r="G314" s="3"/>
       <c r="J314" s="4"/>
     </row>
-    <row r="315">
+    <row r="315" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C315" s="3"/>
       <c r="G315" s="3"/>
       <c r="J315" s="4"/>
     </row>
-    <row r="316">
+    <row r="316" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C316" s="3"/>
       <c r="G316" s="3"/>
       <c r="J316" s="4"/>
     </row>
-    <row r="317">
+    <row r="317" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C317" s="3"/>
       <c r="G317" s="3"/>
       <c r="J317" s="4"/>
     </row>
-    <row r="318">
+    <row r="318" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C318" s="3"/>
       <c r="G318" s="3"/>
       <c r="J318" s="4"/>
     </row>
-    <row r="319">
+    <row r="319" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C319" s="3"/>
       <c r="G319" s="3"/>
       <c r="J319" s="4"/>
     </row>
-    <row r="320">
+    <row r="320" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C320" s="3"/>
       <c r="G320" s="3"/>
       <c r="J320" s="4"/>
     </row>
-    <row r="321">
+    <row r="321" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C321" s="3"/>
       <c r="G321" s="3"/>
       <c r="J321" s="4"/>
     </row>
-    <row r="322">
+    <row r="322" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C322" s="3"/>
       <c r="G322" s="3"/>
       <c r="J322" s="4"/>
     </row>
-    <row r="323">
+    <row r="323" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C323" s="3"/>
       <c r="G323" s="3"/>
       <c r="J323" s="4"/>
     </row>
-    <row r="324">
+    <row r="324" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C324" s="3"/>
       <c r="G324" s="3"/>
       <c r="J324" s="4"/>
     </row>
-    <row r="325">
+    <row r="325" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C325" s="3"/>
       <c r="G325" s="3"/>
       <c r="J325" s="4"/>
     </row>
-    <row r="326">
+    <row r="326" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C326" s="3"/>
       <c r="G326" s="3"/>
       <c r="J326" s="4"/>
     </row>
-    <row r="327">
+    <row r="327" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C327" s="3"/>
       <c r="G327" s="3"/>
       <c r="J327" s="4"/>
     </row>
-    <row r="328">
+    <row r="328" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C328" s="3"/>
       <c r="G328" s="3"/>
       <c r="J328" s="4"/>
     </row>
-    <row r="329">
+    <row r="329" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C329" s="3"/>
       <c r="G329" s="3"/>
       <c r="J329" s="4"/>
     </row>
-    <row r="330">
+    <row r="330" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C330" s="3"/>
       <c r="G330" s="3"/>
       <c r="J330" s="4"/>
     </row>
-    <row r="331">
+    <row r="331" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C331" s="3"/>
       <c r="G331" s="3"/>
       <c r="J331" s="4"/>
     </row>
-    <row r="332">
+    <row r="332" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C332" s="3"/>
       <c r="G332" s="3"/>
       <c r="J332" s="4"/>
     </row>
-    <row r="333">
+    <row r="333" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C333" s="3"/>
       <c r="G333" s="3"/>
       <c r="J333" s="4"/>
     </row>
-    <row r="334">
+    <row r="334" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C334" s="3"/>
       <c r="G334" s="3"/>
       <c r="J334" s="4"/>
     </row>
-    <row r="335">
+    <row r="335" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C335" s="3"/>
       <c r="G335" s="3"/>
       <c r="J335" s="4"/>
     </row>
-    <row r="336">
+    <row r="336" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C336" s="3"/>
       <c r="G336" s="3"/>
       <c r="J336" s="4"/>
     </row>
-    <row r="337">
+    <row r="337" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C337" s="3"/>
       <c r="G337" s="3"/>
       <c r="J337" s="4"/>
     </row>
-    <row r="338">
+    <row r="338" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C338" s="3"/>
       <c r="G338" s="3"/>
       <c r="J338" s="4"/>
     </row>
-    <row r="339">
+    <row r="339" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C339" s="3"/>
       <c r="G339" s="3"/>
       <c r="J339" s="4"/>
     </row>
-    <row r="340">
+    <row r="340" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C340" s="3"/>
       <c r="G340" s="3"/>
       <c r="J340" s="4"/>
     </row>
-    <row r="341">
+    <row r="341" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C341" s="3"/>
       <c r="G341" s="3"/>
       <c r="J341" s="4"/>
     </row>
-    <row r="342">
+    <row r="342" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C342" s="3"/>
       <c r="G342" s="3"/>
       <c r="J342" s="4"/>
     </row>
-    <row r="343">
+    <row r="343" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C343" s="3"/>
       <c r="G343" s="3"/>
       <c r="J343" s="4"/>
     </row>
-    <row r="344">
+    <row r="344" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C344" s="3"/>
       <c r="G344" s="3"/>
       <c r="J344" s="4"/>
     </row>
-    <row r="345">
+    <row r="345" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C345" s="3"/>
       <c r="G345" s="3"/>
       <c r="J345" s="4"/>
     </row>
-    <row r="346">
+    <row r="346" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C346" s="3"/>
       <c r="G346" s="3"/>
       <c r="J346" s="4"/>
     </row>
-    <row r="347">
+    <row r="347" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C347" s="3"/>
       <c r="G347" s="3"/>
       <c r="J347" s="4"/>
     </row>
-    <row r="348">
+    <row r="348" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C348" s="3"/>
       <c r="G348" s="3"/>
       <c r="J348" s="4"/>
     </row>
-    <row r="349">
+    <row r="349" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C349" s="3"/>
       <c r="G349" s="3"/>
       <c r="J349" s="4"/>
     </row>
-    <row r="350">
+    <row r="350" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C350" s="3"/>
       <c r="G350" s="3"/>
       <c r="J350" s="4"/>
     </row>
-    <row r="351">
+    <row r="351" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C351" s="3"/>
       <c r="G351" s="3"/>
       <c r="J351" s="4"/>
     </row>
-    <row r="352">
+    <row r="352" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C352" s="3"/>
       <c r="G352" s="3"/>
       <c r="J352" s="4"/>
     </row>
-    <row r="353">
+    <row r="353" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C353" s="3"/>
       <c r="G353" s="3"/>
       <c r="J353" s="4"/>
     </row>
-    <row r="354">
+    <row r="354" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C354" s="3"/>
       <c r="G354" s="3"/>
       <c r="J354" s="4"/>
     </row>
-    <row r="355">
+    <row r="355" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C355" s="3"/>
       <c r="G355" s="3"/>
       <c r="J355" s="4"/>
     </row>
-    <row r="356">
+    <row r="356" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C356" s="3"/>
       <c r="G356" s="3"/>
       <c r="J356" s="4"/>
     </row>
-    <row r="357">
+    <row r="357" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C357" s="3"/>
       <c r="G357" s="3"/>
       <c r="J357" s="4"/>
     </row>
-    <row r="358">
+    <row r="358" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C358" s="3"/>
       <c r="G358" s="3"/>
       <c r="J358" s="4"/>
     </row>
-    <row r="359">
+    <row r="359" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C359" s="3"/>
       <c r="G359" s="3"/>
       <c r="J359" s="4"/>
     </row>
-    <row r="360">
+    <row r="360" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C360" s="3"/>
       <c r="G360" s="3"/>
       <c r="J360" s="4"/>
     </row>
-    <row r="361">
+    <row r="361" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C361" s="3"/>
       <c r="G361" s="3"/>
       <c r="J361" s="4"/>
     </row>
-    <row r="362">
+    <row r="362" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C362" s="3"/>
       <c r="G362" s="3"/>
       <c r="J362" s="4"/>
     </row>
-    <row r="363">
+    <row r="363" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C363" s="3"/>
       <c r="G363" s="3"/>
       <c r="J363" s="4"/>
     </row>
-    <row r="364">
+    <row r="364" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C364" s="3"/>
       <c r="G364" s="3"/>
       <c r="J364" s="4"/>
     </row>
-    <row r="365">
+    <row r="365" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C365" s="3"/>
       <c r="G365" s="3"/>
       <c r="J365" s="4"/>
     </row>
-    <row r="366">
+    <row r="366" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C366" s="3"/>
       <c r="G366" s="3"/>
       <c r="J366" s="4"/>
     </row>
-    <row r="367">
+    <row r="367" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C367" s="3"/>
       <c r="G367" s="3"/>
       <c r="J367" s="4"/>
     </row>
-    <row r="368">
+    <row r="368" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C368" s="3"/>
       <c r="G368" s="3"/>
       <c r="J368" s="4"/>
     </row>
-    <row r="369">
+    <row r="369" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C369" s="3"/>
       <c r="G369" s="3"/>
       <c r="J369" s="4"/>
     </row>
-    <row r="370">
+    <row r="370" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C370" s="3"/>
       <c r="G370" s="3"/>
       <c r="J370" s="4"/>
     </row>
-    <row r="371">
+    <row r="371" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C371" s="3"/>
       <c r="G371" s="3"/>
       <c r="J371" s="4"/>
     </row>
-    <row r="372">
+    <row r="372" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C372" s="3"/>
       <c r="G372" s="3"/>
       <c r="J372" s="4"/>
     </row>
-    <row r="373">
+    <row r="373" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C373" s="3"/>
       <c r="G373" s="3"/>
       <c r="J373" s="4"/>
     </row>
-    <row r="374">
+    <row r="374" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C374" s="3"/>
       <c r="G374" s="3"/>
       <c r="J374" s="4"/>
     </row>
-    <row r="375">
+    <row r="375" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C375" s="3"/>
       <c r="G375" s="3"/>
       <c r="J375" s="4"/>
     </row>
-    <row r="376">
+    <row r="376" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C376" s="3"/>
       <c r="G376" s="3"/>
       <c r="J376" s="4"/>
     </row>
-    <row r="377">
+    <row r="377" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C377" s="3"/>
       <c r="G377" s="3"/>
       <c r="J377" s="4"/>
     </row>
-    <row r="378">
+    <row r="378" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C378" s="3"/>
       <c r="G378" s="3"/>
       <c r="J378" s="4"/>
     </row>
-    <row r="379">
+    <row r="379" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C379" s="3"/>
       <c r="G379" s="3"/>
       <c r="J379" s="4"/>
     </row>
-    <row r="380">
+    <row r="380" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C380" s="3"/>
       <c r="G380" s="3"/>
       <c r="J380" s="4"/>
     </row>
-    <row r="381">
+    <row r="381" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C381" s="3"/>
       <c r="G381" s="3"/>
       <c r="J381" s="4"/>
     </row>
-    <row r="382">
+    <row r="382" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C382" s="3"/>
       <c r="G382" s="3"/>
       <c r="J382" s="4"/>
     </row>
-    <row r="383">
+    <row r="383" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C383" s="3"/>
       <c r="G383" s="3"/>
       <c r="J383" s="4"/>
     </row>
-    <row r="384">
+    <row r="384" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C384" s="3"/>
       <c r="G384" s="3"/>
       <c r="J384" s="4"/>
     </row>
-    <row r="385">
+    <row r="385" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C385" s="3"/>
       <c r="G385" s="3"/>
       <c r="J385" s="4"/>
     </row>
-    <row r="386">
+    <row r="386" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C386" s="3"/>
       <c r="G386" s="3"/>
       <c r="J386" s="4"/>
     </row>
-    <row r="387">
+    <row r="387" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C387" s="3"/>
       <c r="G387" s="3"/>
       <c r="J387" s="4"/>
     </row>
-    <row r="388">
+    <row r="388" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C388" s="3"/>
       <c r="G388" s="3"/>
       <c r="J388" s="4"/>
     </row>
-    <row r="389">
+    <row r="389" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C389" s="3"/>
       <c r="G389" s="3"/>
       <c r="J389" s="4"/>
     </row>
-    <row r="390">
+    <row r="390" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C390" s="3"/>
       <c r="G390" s="3"/>
       <c r="J390" s="4"/>
     </row>
-    <row r="391">
+    <row r="391" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C391" s="3"/>
       <c r="G391" s="3"/>
       <c r="J391" s="4"/>
     </row>
-    <row r="392">
+    <row r="392" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C392" s="3"/>
       <c r="G392" s="3"/>
       <c r="J392" s="4"/>
     </row>
-    <row r="393">
+    <row r="393" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C393" s="3"/>
       <c r="G393" s="3"/>
       <c r="J393" s="4"/>
     </row>
-    <row r="394">
+    <row r="394" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C394" s="3"/>
       <c r="G394" s="3"/>
       <c r="J394" s="4"/>
     </row>
-    <row r="395">
+    <row r="395" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C395" s="3"/>
       <c r="G395" s="3"/>
       <c r="J395" s="4"/>
     </row>
-    <row r="396">
+    <row r="396" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C396" s="3"/>
       <c r="G396" s="3"/>
       <c r="J396" s="4"/>
     </row>
-    <row r="397">
+    <row r="397" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C397" s="3"/>
       <c r="G397" s="3"/>
       <c r="J397" s="4"/>
     </row>
-    <row r="398">
+    <row r="398" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C398" s="3"/>
       <c r="G398" s="3"/>
       <c r="J398" s="4"/>
     </row>
-    <row r="399">
+    <row r="399" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C399" s="3"/>
       <c r="G399" s="3"/>
       <c r="J399" s="4"/>
     </row>
-    <row r="400">
+    <row r="400" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C400" s="3"/>
       <c r="G400" s="3"/>
       <c r="J400" s="4"/>
     </row>
-    <row r="401">
+    <row r="401" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C401" s="3"/>
       <c r="G401" s="3"/>
       <c r="J401" s="4"/>
     </row>
-    <row r="402">
+    <row r="402" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C402" s="3"/>
       <c r="G402" s="3"/>
       <c r="J402" s="4"/>
     </row>
-    <row r="403">
+    <row r="403" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C403" s="3"/>
       <c r="G403" s="3"/>
       <c r="J403" s="4"/>
     </row>
-    <row r="404">
+    <row r="404" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C404" s="3"/>
       <c r="G404" s="3"/>
       <c r="J404" s="4"/>
     </row>
-    <row r="405">
+    <row r="405" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C405" s="3"/>
       <c r="G405" s="3"/>
       <c r="J405" s="4"/>
     </row>
-    <row r="406">
+    <row r="406" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C406" s="3"/>
       <c r="G406" s="3"/>
       <c r="J406" s="4"/>
     </row>
-    <row r="407">
+    <row r="407" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C407" s="3"/>
       <c r="G407" s="3"/>
       <c r="J407" s="4"/>
     </row>
-    <row r="408">
+    <row r="408" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C408" s="3"/>
       <c r="G408" s="3"/>
       <c r="J408" s="4"/>
     </row>
-    <row r="409">
+    <row r="409" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C409" s="3"/>
       <c r="G409" s="3"/>
       <c r="J409" s="4"/>
     </row>
-    <row r="410">
+    <row r="410" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C410" s="3"/>
       <c r="G410" s="3"/>
       <c r="J410" s="4"/>
     </row>
-    <row r="411">
+    <row r="411" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C411" s="3"/>
       <c r="G411" s="3"/>
       <c r="J411" s="4"/>
     </row>
-    <row r="412">
+    <row r="412" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C412" s="3"/>
       <c r="G412" s="3"/>
       <c r="J412" s="4"/>
     </row>
-    <row r="413">
+    <row r="413" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C413" s="3"/>
       <c r="G413" s="3"/>
       <c r="J413" s="4"/>
     </row>
-    <row r="414">
+    <row r="414" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C414" s="3"/>
       <c r="G414" s="3"/>
       <c r="J414" s="4"/>
     </row>
-    <row r="415">
+    <row r="415" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C415" s="3"/>
       <c r="G415" s="3"/>
       <c r="J415" s="4"/>
     </row>
-    <row r="416">
+    <row r="416" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C416" s="3"/>
       <c r="G416" s="3"/>
       <c r="J416" s="4"/>
     </row>
-    <row r="417">
+    <row r="417" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C417" s="3"/>
       <c r="G417" s="3"/>
       <c r="J417" s="4"/>
     </row>
-    <row r="418">
+    <row r="418" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C418" s="3"/>
       <c r="G418" s="3"/>
       <c r="J418" s="4"/>
     </row>
-    <row r="419">
+    <row r="419" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C419" s="3"/>
       <c r="G419" s="3"/>
       <c r="J419" s="4"/>
     </row>
-    <row r="420">
+    <row r="420" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C420" s="3"/>
       <c r="G420" s="3"/>
       <c r="J420" s="4"/>
     </row>
-    <row r="421">
+    <row r="421" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C421" s="3"/>
       <c r="G421" s="3"/>
       <c r="J421" s="4"/>
     </row>
-    <row r="422">
+    <row r="422" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C422" s="3"/>
       <c r="G422" s="3"/>
       <c r="J422" s="4"/>
     </row>
-    <row r="423">
+    <row r="423" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C423" s="3"/>
       <c r="G423" s="3"/>
       <c r="J423" s="4"/>
     </row>
-    <row r="424">
+    <row r="424" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C424" s="3"/>
       <c r="G424" s="3"/>
       <c r="J424" s="4"/>
     </row>
-    <row r="425">
+    <row r="425" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C425" s="3"/>
       <c r="G425" s="3"/>
       <c r="J425" s="4"/>
     </row>
-    <row r="426">
+    <row r="426" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C426" s="3"/>
       <c r="G426" s="3"/>
       <c r="J426" s="4"/>
     </row>
-    <row r="427">
+    <row r="427" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C427" s="3"/>
       <c r="G427" s="3"/>
       <c r="J427" s="4"/>
     </row>
-    <row r="428">
+    <row r="428" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C428" s="3"/>
       <c r="G428" s="3"/>
       <c r="J428" s="4"/>
     </row>
-    <row r="429">
+    <row r="429" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C429" s="3"/>
       <c r="G429" s="3"/>
       <c r="J429" s="4"/>
     </row>
-    <row r="430">
+    <row r="430" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C430" s="3"/>
       <c r="G430" s="3"/>
       <c r="J430" s="4"/>
     </row>
-    <row r="431">
+    <row r="431" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C431" s="3"/>
       <c r="G431" s="3"/>
       <c r="J431" s="4"/>
     </row>
-    <row r="432">
+    <row r="432" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C432" s="3"/>
       <c r="G432" s="3"/>
       <c r="J432" s="4"/>
     </row>
-    <row r="433">
+    <row r="433" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C433" s="3"/>
       <c r="G433" s="3"/>
       <c r="J433" s="4"/>
     </row>
-    <row r="434">
+    <row r="434" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C434" s="3"/>
       <c r="G434" s="3"/>
       <c r="J434" s="4"/>
     </row>
-    <row r="435">
+    <row r="435" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C435" s="3"/>
       <c r="G435" s="3"/>
       <c r="J435" s="4"/>
     </row>
-    <row r="436">
+    <row r="436" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C436" s="3"/>
       <c r="G436" s="3"/>
       <c r="J436" s="4"/>
     </row>
-    <row r="437">
+    <row r="437" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C437" s="3"/>
       <c r="G437" s="3"/>
       <c r="J437" s="4"/>
     </row>
-    <row r="438">
+    <row r="438" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C438" s="3"/>
       <c r="G438" s="3"/>
       <c r="J438" s="4"/>
     </row>
-    <row r="439">
+    <row r="439" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C439" s="3"/>
       <c r="G439" s="3"/>
       <c r="J439" s="4"/>
     </row>
-    <row r="440">
+    <row r="440" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C440" s="3"/>
       <c r="G440" s="3"/>
       <c r="J440" s="4"/>
     </row>
-    <row r="441">
+    <row r="441" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C441" s="3"/>
       <c r="G441" s="3"/>
       <c r="J441" s="4"/>
     </row>
-    <row r="442">
+    <row r="442" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C442" s="3"/>
       <c r="G442" s="3"/>
       <c r="J442" s="4"/>
     </row>
-    <row r="443">
+    <row r="443" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C443" s="3"/>
       <c r="G443" s="3"/>
       <c r="J443" s="4"/>
     </row>
-    <row r="444">
+    <row r="444" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C444" s="3"/>
       <c r="G444" s="3"/>
       <c r="J444" s="4"/>
     </row>
-    <row r="445">
+    <row r="445" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C445" s="3"/>
       <c r="G445" s="3"/>
       <c r="J445" s="4"/>
     </row>
-    <row r="446">
+    <row r="446" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C446" s="3"/>
       <c r="G446" s="3"/>
       <c r="J446" s="4"/>
     </row>
-    <row r="447">
+    <row r="447" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C447" s="3"/>
       <c r="G447" s="3"/>
       <c r="J447" s="4"/>
     </row>
-    <row r="448">
+    <row r="448" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C448" s="3"/>
       <c r="G448" s="3"/>
       <c r="J448" s="4"/>
     </row>
-    <row r="449">
+    <row r="449" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C449" s="3"/>
       <c r="G449" s="3"/>
       <c r="J449" s="4"/>
     </row>
-    <row r="450">
+    <row r="450" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C450" s="3"/>
       <c r="G450" s="3"/>
       <c r="J450" s="4"/>
     </row>
-    <row r="451">
+    <row r="451" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C451" s="3"/>
       <c r="G451" s="3"/>
       <c r="J451" s="4"/>
     </row>
-    <row r="452">
+    <row r="452" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C452" s="3"/>
       <c r="G452" s="3"/>
       <c r="J452" s="4"/>
     </row>
-    <row r="453">
+    <row r="453" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C453" s="3"/>
       <c r="G453" s="3"/>
       <c r="J453" s="4"/>
     </row>
-    <row r="454">
+    <row r="454" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C454" s="3"/>
       <c r="G454" s="3"/>
       <c r="J454" s="4"/>
     </row>
-    <row r="455">
+    <row r="455" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C455" s="3"/>
       <c r="G455" s="3"/>
       <c r="J455" s="4"/>
     </row>
-    <row r="456">
+    <row r="456" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C456" s="3"/>
       <c r="G456" s="3"/>
       <c r="J456" s="4"/>
     </row>
-    <row r="457">
+    <row r="457" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C457" s="3"/>
       <c r="G457" s="3"/>
       <c r="J457" s="4"/>
     </row>
-    <row r="458">
+    <row r="458" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C458" s="3"/>
       <c r="G458" s="3"/>
       <c r="J458" s="4"/>
     </row>
-    <row r="459">
+    <row r="459" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C459" s="3"/>
       <c r="G459" s="3"/>
       <c r="J459" s="4"/>
     </row>
-    <row r="460">
+    <row r="460" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C460" s="3"/>
       <c r="G460" s="3"/>
       <c r="J460" s="4"/>
     </row>
-    <row r="461">
+    <row r="461" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C461" s="3"/>
       <c r="G461" s="3"/>
       <c r="J461" s="4"/>
     </row>
-    <row r="462">
+    <row r="462" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C462" s="3"/>
       <c r="G462" s="3"/>
       <c r="J462" s="4"/>
     </row>
-    <row r="463">
+    <row r="463" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C463" s="3"/>
       <c r="G463" s="3"/>
       <c r="J463" s="4"/>
     </row>
-    <row r="464">
+    <row r="464" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C464" s="3"/>
       <c r="G464" s="3"/>
       <c r="J464" s="4"/>
     </row>
-    <row r="465">
+    <row r="465" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C465" s="3"/>
       <c r="G465" s="3"/>
       <c r="J465" s="4"/>
     </row>
-    <row r="466">
+    <row r="466" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C466" s="3"/>
       <c r="G466" s="3"/>
       <c r="J466" s="4"/>
     </row>
-    <row r="467">
+    <row r="467" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C467" s="3"/>
       <c r="G467" s="3"/>
       <c r="J467" s="4"/>
     </row>
-    <row r="468">
+    <row r="468" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C468" s="3"/>
       <c r="G468" s="3"/>
       <c r="J468" s="4"/>
     </row>
-    <row r="469">
+    <row r="469" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C469" s="3"/>
       <c r="G469" s="3"/>
       <c r="J469" s="4"/>
     </row>
-    <row r="470">
+    <row r="470" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C470" s="3"/>
       <c r="G470" s="3"/>
       <c r="J470" s="4"/>
     </row>
-    <row r="471">
+    <row r="471" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C471" s="3"/>
       <c r="G471" s="3"/>
       <c r="J471" s="4"/>
     </row>
-    <row r="472">
+    <row r="472" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C472" s="3"/>
       <c r="G472" s="3"/>
       <c r="J472" s="4"/>
     </row>
-    <row r="473">
+    <row r="473" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C473" s="3"/>
       <c r="G473" s="3"/>
       <c r="J473" s="4"/>
     </row>
-    <row r="474">
+    <row r="474" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C474" s="3"/>
       <c r="G474" s="3"/>
       <c r="J474" s="4"/>
     </row>
-    <row r="475">
+    <row r="475" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C475" s="3"/>
       <c r="G475" s="3"/>
       <c r="J475" s="4"/>
     </row>
-    <row r="476">
+    <row r="476" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C476" s="3"/>
       <c r="G476" s="3"/>
       <c r="J476" s="4"/>
     </row>
-    <row r="477">
+    <row r="477" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C477" s="3"/>
       <c r="G477" s="3"/>
       <c r="J477" s="4"/>
     </row>
-    <row r="478">
+    <row r="478" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C478" s="3"/>
       <c r="G478" s="3"/>
       <c r="J478" s="4"/>
     </row>
-    <row r="479">
+    <row r="479" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C479" s="3"/>
       <c r="G479" s="3"/>
       <c r="J479" s="4"/>
     </row>
-    <row r="480">
+    <row r="480" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C480" s="3"/>
       <c r="G480" s="3"/>
       <c r="J480" s="4"/>
     </row>
-    <row r="481">
+    <row r="481" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C481" s="3"/>
       <c r="G481" s="3"/>
       <c r="J481" s="4"/>
     </row>
-    <row r="482">
+    <row r="482" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C482" s="3"/>
       <c r="G482" s="3"/>
       <c r="J482" s="4"/>
     </row>
-    <row r="483">
+    <row r="483" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C483" s="3"/>
       <c r="G483" s="3"/>
       <c r="J483" s="4"/>
     </row>
-    <row r="484">
+    <row r="484" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C484" s="3"/>
       <c r="G484" s="3"/>
       <c r="J484" s="4"/>
     </row>
-    <row r="485">
+    <row r="485" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C485" s="3"/>
       <c r="G485" s="3"/>
       <c r="J485" s="4"/>
     </row>
-    <row r="486">
+    <row r="486" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C486" s="3"/>
       <c r="G486" s="3"/>
       <c r="J486" s="4"/>
     </row>
-    <row r="487">
+    <row r="487" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C487" s="3"/>
       <c r="G487" s="3"/>
       <c r="J487" s="4"/>
     </row>
-    <row r="488">
+    <row r="488" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C488" s="3"/>
       <c r="G488" s="3"/>
       <c r="J488" s="4"/>
     </row>
-    <row r="489">
+    <row r="489" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C489" s="3"/>
       <c r="G489" s="3"/>
       <c r="J489" s="4"/>
     </row>
-    <row r="490">
+    <row r="490" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C490" s="3"/>
       <c r="G490" s="3"/>
       <c r="J490" s="4"/>
     </row>
-    <row r="491">
+    <row r="491" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C491" s="3"/>
       <c r="G491" s="3"/>
       <c r="J491" s="4"/>
     </row>
-    <row r="492">
+    <row r="492" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C492" s="3"/>
       <c r="G492" s="3"/>
       <c r="J492" s="4"/>
     </row>
-    <row r="493">
+    <row r="493" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C493" s="3"/>
       <c r="G493" s="3"/>
       <c r="J493" s="4"/>
     </row>
-    <row r="494">
+    <row r="494" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C494" s="3"/>
       <c r="G494" s="3"/>
       <c r="J494" s="4"/>
     </row>
-    <row r="495">
+    <row r="495" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C495" s="3"/>
       <c r="G495" s="3"/>
       <c r="J495" s="4"/>
     </row>
-    <row r="496">
+    <row r="496" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C496" s="3"/>
       <c r="G496" s="3"/>
       <c r="J496" s="4"/>
     </row>
-    <row r="497">
+    <row r="497" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C497" s="3"/>
       <c r="G497" s="3"/>
       <c r="J497" s="4"/>
     </row>
-    <row r="498">
+    <row r="498" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C498" s="3"/>
       <c r="G498" s="3"/>
       <c r="J498" s="4"/>
     </row>
-    <row r="499">
+    <row r="499" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C499" s="3"/>
       <c r="G499" s="3"/>
       <c r="J499" s="4"/>
     </row>
-    <row r="500">
+    <row r="500" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C500" s="3"/>
       <c r="G500" s="3"/>
       <c r="J500" s="4"/>
     </row>
-    <row r="501">
+    <row r="501" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C501" s="3"/>
       <c r="G501" s="3"/>
       <c r="J501" s="4"/>
     </row>
-    <row r="502">
+    <row r="502" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C502" s="3"/>
       <c r="G502" s="3"/>
       <c r="J502" s="4"/>
     </row>
-    <row r="503">
+    <row r="503" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C503" s="3"/>
       <c r="G503" s="3"/>
       <c r="J503" s="4"/>
     </row>
-    <row r="504">
+    <row r="504" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C504" s="3"/>
       <c r="G504" s="3"/>
       <c r="J504" s="4"/>
     </row>
-    <row r="505">
+    <row r="505" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C505" s="3"/>
       <c r="G505" s="3"/>
       <c r="J505" s="4"/>
     </row>
-    <row r="506">
+    <row r="506" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C506" s="3"/>
       <c r="G506" s="3"/>
       <c r="J506" s="4"/>
     </row>
-    <row r="507">
+    <row r="507" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C507" s="3"/>
       <c r="G507" s="3"/>
       <c r="J507" s="4"/>
     </row>
-    <row r="508">
+    <row r="508" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C508" s="3"/>
       <c r="G508" s="3"/>
       <c r="J508" s="4"/>
     </row>
-    <row r="509">
+    <row r="509" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C509" s="3"/>
       <c r="G509" s="3"/>
       <c r="J509" s="4"/>
     </row>
-    <row r="510">
+    <row r="510" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C510" s="3"/>
       <c r="G510" s="3"/>
       <c r="J510" s="4"/>
     </row>
-    <row r="511">
+    <row r="511" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C511" s="3"/>
       <c r="G511" s="3"/>
       <c r="J511" s="4"/>
     </row>
-    <row r="512">
+    <row r="512" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C512" s="3"/>
       <c r="G512" s="3"/>
       <c r="J512" s="4"/>
     </row>
-    <row r="513">
+    <row r="513" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C513" s="3"/>
       <c r="G513" s="3"/>
       <c r="J513" s="4"/>
     </row>
-    <row r="514">
+    <row r="514" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C514" s="3"/>
       <c r="G514" s="3"/>
       <c r="J514" s="4"/>
     </row>
-    <row r="515">
+    <row r="515" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C515" s="3"/>
       <c r="G515" s="3"/>
       <c r="J515" s="4"/>
     </row>
-    <row r="516">
+    <row r="516" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C516" s="3"/>
       <c r="G516" s="3"/>
       <c r="J516" s="4"/>
     </row>
-    <row r="517">
+    <row r="517" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C517" s="3"/>
       <c r="G517" s="3"/>
       <c r="J517" s="4"/>
     </row>
-    <row r="518">
+    <row r="518" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C518" s="3"/>
       <c r="G518" s="3"/>
       <c r="J518" s="4"/>
     </row>
-    <row r="519">
+    <row r="519" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C519" s="3"/>
       <c r="G519" s="3"/>
       <c r="J519" s="4"/>
     </row>
-    <row r="520">
+    <row r="520" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C520" s="3"/>
       <c r="G520" s="3"/>
       <c r="J520" s="4"/>
     </row>
-    <row r="521">
+    <row r="521" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C521" s="3"/>
       <c r="G521" s="3"/>
       <c r="J521" s="4"/>
     </row>
-    <row r="522">
+    <row r="522" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C522" s="3"/>
       <c r="G522" s="3"/>
       <c r="J522" s="4"/>
     </row>
-    <row r="523">
+    <row r="523" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C523" s="3"/>
       <c r="G523" s="3"/>
       <c r="J523" s="4"/>
     </row>
-    <row r="524">
+    <row r="524" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C524" s="3"/>
       <c r="G524" s="3"/>
       <c r="J524" s="4"/>
     </row>
-    <row r="525">
+    <row r="525" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C525" s="3"/>
       <c r="G525" s="3"/>
       <c r="J525" s="4"/>
     </row>
-    <row r="526">
+    <row r="526" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C526" s="3"/>
       <c r="G526" s="3"/>
       <c r="J526" s="4"/>
     </row>
-    <row r="527">
+    <row r="527" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C527" s="3"/>
       <c r="G527" s="3"/>
       <c r="J527" s="4"/>
     </row>
-    <row r="528">
+    <row r="528" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C528" s="3"/>
       <c r="G528" s="3"/>
       <c r="J528" s="4"/>
     </row>
-    <row r="529">
+    <row r="529" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C529" s="3"/>
       <c r="G529" s="3"/>
       <c r="J529" s="4"/>
     </row>
-    <row r="530">
+    <row r="530" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C530" s="3"/>
       <c r="G530" s="3"/>
       <c r="J530" s="4"/>
     </row>
-    <row r="531">
+    <row r="531" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C531" s="3"/>
       <c r="G531" s="3"/>
       <c r="J531" s="4"/>
     </row>
-    <row r="532">
+    <row r="532" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C532" s="3"/>
       <c r="G532" s="3"/>
       <c r="J532" s="4"/>
     </row>
-    <row r="533">
+    <row r="533" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C533" s="3"/>
       <c r="G533" s="3"/>
       <c r="J533" s="4"/>
     </row>
-    <row r="534">
+    <row r="534" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C534" s="3"/>
       <c r="G534" s="3"/>
       <c r="J534" s="4"/>
     </row>
-    <row r="535">
+    <row r="535" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C535" s="3"/>
       <c r="G535" s="3"/>
       <c r="J535" s="4"/>
     </row>
-    <row r="536">
+    <row r="536" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C536" s="3"/>
       <c r="G536" s="3"/>
       <c r="J536" s="4"/>
     </row>
-    <row r="537">
+    <row r="537" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C537" s="3"/>
       <c r="G537" s="3"/>
       <c r="J537" s="4"/>
     </row>
-    <row r="538">
+    <row r="538" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C538" s="3"/>
       <c r="G538" s="3"/>
       <c r="J538" s="4"/>
     </row>
-    <row r="539">
+    <row r="539" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C539" s="3"/>
       <c r="G539" s="3"/>
       <c r="J539" s="4"/>
     </row>
-    <row r="540">
+    <row r="540" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C540" s="3"/>
       <c r="G540" s="3"/>
       <c r="J540" s="4"/>
     </row>
-    <row r="541">
+    <row r="541" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C541" s="3"/>
       <c r="G541" s="3"/>
       <c r="J541" s="4"/>
     </row>
-    <row r="542">
+    <row r="542" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C542" s="3"/>
       <c r="G542" s="3"/>
       <c r="J542" s="4"/>
     </row>
-    <row r="543">
+    <row r="543" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C543" s="3"/>
       <c r="G543" s="3"/>
       <c r="J543" s="4"/>
     </row>
-    <row r="544">
+    <row r="544" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C544" s="3"/>
       <c r="G544" s="3"/>
       <c r="J544" s="4"/>
     </row>
-    <row r="545">
+    <row r="545" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C545" s="3"/>
       <c r="G545" s="3"/>
       <c r="J545" s="4"/>
     </row>
-    <row r="546">
+    <row r="546" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C546" s="3"/>
       <c r="G546" s="3"/>
       <c r="J546" s="4"/>
     </row>
-    <row r="547">
+    <row r="547" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C547" s="3"/>
       <c r="G547" s="3"/>
       <c r="J547" s="4"/>
     </row>
-    <row r="548">
+    <row r="548" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C548" s="3"/>
       <c r="G548" s="3"/>
       <c r="J548" s="4"/>
     </row>
-    <row r="549">
+    <row r="549" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C549" s="3"/>
       <c r="G549" s="3"/>
       <c r="J549" s="4"/>
     </row>
-    <row r="550">
+    <row r="550" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C550" s="3"/>
       <c r="G550" s="3"/>
       <c r="J550" s="4"/>
     </row>
-    <row r="551">
+    <row r="551" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C551" s="3"/>
       <c r="G551" s="3"/>
       <c r="J551" s="4"/>
     </row>
-    <row r="552">
+    <row r="552" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C552" s="3"/>
       <c r="G552" s="3"/>
       <c r="J552" s="4"/>
     </row>
-    <row r="553">
+    <row r="553" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C553" s="3"/>
       <c r="G553" s="3"/>
       <c r="J553" s="4"/>
     </row>
-    <row r="554">
+    <row r="554" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C554" s="3"/>
       <c r="G554" s="3"/>
       <c r="J554" s="4"/>
     </row>
-    <row r="555">
+    <row r="555" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C555" s="3"/>
       <c r="G555" s="3"/>
       <c r="J555" s="4"/>
     </row>
-    <row r="556">
+    <row r="556" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C556" s="3"/>
       <c r="G556" s="3"/>
       <c r="J556" s="4"/>
     </row>
-    <row r="557">
+    <row r="557" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C557" s="3"/>
       <c r="G557" s="3"/>
       <c r="J557" s="4"/>
     </row>
-    <row r="558">
+    <row r="558" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C558" s="3"/>
       <c r="G558" s="3"/>
       <c r="J558" s="4"/>
     </row>
-    <row r="559">
+    <row r="559" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C559" s="3"/>
       <c r="G559" s="3"/>
       <c r="J559" s="4"/>
     </row>
-    <row r="560">
+    <row r="560" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C560" s="3"/>
       <c r="G560" s="3"/>
       <c r="J560" s="4"/>
     </row>
-    <row r="561">
+    <row r="561" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C561" s="3"/>
       <c r="G561" s="3"/>
       <c r="J561" s="4"/>
     </row>
-    <row r="562">
+    <row r="562" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C562" s="3"/>
       <c r="G562" s="3"/>
       <c r="J562" s="4"/>
     </row>
-    <row r="563">
+    <row r="563" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C563" s="3"/>
       <c r="G563" s="3"/>
       <c r="J563" s="4"/>
     </row>
-    <row r="564">
+    <row r="564" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C564" s="3"/>
       <c r="G564" s="3"/>
       <c r="J564" s="4"/>
     </row>
-    <row r="565">
+    <row r="565" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C565" s="3"/>
       <c r="G565" s="3"/>
       <c r="J565" s="4"/>
     </row>
-    <row r="566">
+    <row r="566" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C566" s="3"/>
       <c r="G566" s="3"/>
       <c r="J566" s="4"/>
     </row>
-    <row r="567">
+    <row r="567" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C567" s="3"/>
       <c r="G567" s="3"/>
       <c r="J567" s="4"/>
     </row>
-    <row r="568">
+    <row r="568" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C568" s="3"/>
       <c r="G568" s="3"/>
       <c r="J568" s="4"/>
     </row>
-    <row r="569">
+    <row r="569" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C569" s="3"/>
       <c r="G569" s="3"/>
       <c r="J569" s="4"/>
     </row>
-    <row r="570">
+    <row r="570" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C570" s="3"/>
       <c r="G570" s="3"/>
       <c r="J570" s="4"/>
     </row>
-    <row r="571">
+    <row r="571" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C571" s="3"/>
       <c r="G571" s="3"/>
       <c r="J571" s="4"/>
     </row>
-    <row r="572">
+    <row r="572" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C572" s="3"/>
       <c r="G572" s="3"/>
       <c r="J572" s="4"/>
     </row>
-    <row r="573">
+    <row r="573" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C573" s="3"/>
       <c r="G573" s="3"/>
       <c r="J573" s="4"/>
     </row>
-    <row r="574">
+    <row r="574" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C574" s="3"/>
       <c r="G574" s="3"/>
       <c r="J574" s="4"/>
     </row>
-    <row r="575">
+    <row r="575" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C575" s="3"/>
       <c r="G575" s="3"/>
       <c r="J575" s="4"/>
     </row>
-    <row r="576">
+    <row r="576" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C576" s="3"/>
       <c r="G576" s="3"/>
       <c r="J576" s="4"/>
     </row>
-    <row r="577">
+    <row r="577" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C577" s="3"/>
       <c r="G577" s="3"/>
       <c r="J577" s="4"/>
     </row>
-    <row r="578">
+    <row r="578" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C578" s="3"/>
       <c r="G578" s="3"/>
       <c r="J578" s="4"/>
     </row>
-    <row r="579">
+    <row r="579" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C579" s="3"/>
       <c r="G579" s="3"/>
       <c r="J579" s="4"/>
     </row>
-    <row r="580">
+    <row r="580" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C580" s="3"/>
       <c r="G580" s="3"/>
       <c r="J580" s="4"/>
     </row>
-    <row r="581">
+    <row r="581" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C581" s="3"/>
       <c r="G581" s="3"/>
       <c r="J581" s="4"/>
     </row>
-    <row r="582">
+    <row r="582" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C582" s="3"/>
       <c r="G582" s="3"/>
       <c r="J582" s="4"/>
     </row>
-    <row r="583">
+    <row r="583" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C583" s="3"/>
       <c r="G583" s="3"/>
       <c r="J583" s="4"/>
     </row>
-    <row r="584">
+    <row r="584" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C584" s="3"/>
       <c r="G584" s="3"/>
       <c r="J584" s="4"/>
     </row>
-    <row r="585">
+    <row r="585" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C585" s="3"/>
       <c r="G585" s="3"/>
       <c r="J585" s="4"/>
     </row>
-    <row r="586">
+    <row r="586" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C586" s="3"/>
       <c r="G586" s="3"/>
       <c r="J586" s="4"/>
     </row>
-    <row r="587">
+    <row r="587" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C587" s="3"/>
       <c r="G587" s="3"/>
       <c r="J587" s="4"/>
     </row>
-    <row r="588">
+    <row r="588" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C588" s="3"/>
       <c r="G588" s="3"/>
       <c r="J588" s="4"/>
     </row>
-    <row r="589">
+    <row r="589" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C589" s="3"/>
       <c r="G589" s="3"/>
       <c r="J589" s="4"/>
     </row>
-    <row r="590">
+    <row r="590" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C590" s="3"/>
       <c r="G590" s="3"/>
       <c r="J590" s="4"/>
     </row>
-    <row r="591">
+    <row r="591" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C591" s="3"/>
       <c r="G591" s="3"/>
       <c r="J591" s="4"/>
     </row>
-    <row r="592">
+    <row r="592" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C592" s="3"/>
       <c r="G592" s="3"/>
       <c r="J592" s="4"/>
     </row>
-    <row r="593">
+    <row r="593" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C593" s="3"/>
       <c r="G593" s="3"/>
       <c r="J593" s="4"/>
     </row>
-    <row r="594">
+    <row r="594" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C594" s="3"/>
       <c r="G594" s="3"/>
       <c r="J594" s="4"/>
     </row>
-    <row r="595">
+    <row r="595" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C595" s="3"/>
       <c r="G595" s="3"/>
       <c r="J595" s="4"/>
     </row>
-    <row r="596">
+    <row r="596" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C596" s="3"/>
       <c r="G596" s="3"/>
       <c r="J596" s="4"/>
     </row>
-    <row r="597">
+    <row r="597" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C597" s="3"/>
       <c r="G597" s="3"/>
       <c r="J597" s="4"/>
     </row>
-    <row r="598">
+    <row r="598" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C598" s="3"/>
       <c r="G598" s="3"/>
       <c r="J598" s="4"/>
     </row>
-    <row r="599">
+    <row r="599" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C599" s="3"/>
       <c r="G599" s="3"/>
       <c r="J599" s="4"/>
     </row>
-    <row r="600">
+    <row r="600" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C600" s="3"/>
       <c r="G600" s="3"/>
       <c r="J600" s="4"/>
     </row>
-    <row r="601">
+    <row r="601" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C601" s="3"/>
       <c r="G601" s="3"/>
       <c r="J601" s="4"/>
     </row>
-    <row r="602">
+    <row r="602" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C602" s="3"/>
       <c r="G602" s="3"/>
       <c r="J602" s="4"/>
     </row>
-    <row r="603">
+    <row r="603" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C603" s="3"/>
       <c r="G603" s="3"/>
       <c r="J603" s="4"/>
     </row>
-    <row r="604">
+    <row r="604" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C604" s="3"/>
       <c r="G604" s="3"/>
       <c r="J604" s="4"/>
     </row>
-    <row r="605">
+    <row r="605" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C605" s="3"/>
       <c r="G605" s="3"/>
       <c r="J605" s="4"/>
     </row>
-    <row r="606">
+    <row r="606" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C606" s="3"/>
       <c r="G606" s="3"/>
       <c r="J606" s="4"/>
     </row>
-    <row r="607">
+    <row r="607" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C607" s="3"/>
       <c r="G607" s="3"/>
       <c r="J607" s="4"/>
     </row>
-    <row r="608">
+    <row r="608" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C608" s="3"/>
       <c r="G608" s="3"/>
       <c r="J608" s="4"/>
     </row>
-    <row r="609">
+    <row r="609" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C609" s="3"/>
       <c r="G609" s="3"/>
       <c r="J609" s="4"/>
     </row>
-    <row r="610">
+    <row r="610" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C610" s="3"/>
       <c r="G610" s="3"/>
       <c r="J610" s="4"/>
     </row>
-    <row r="611">
+    <row r="611" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C611" s="3"/>
       <c r="G611" s="3"/>
       <c r="J611" s="4"/>
     </row>
-    <row r="612">
+    <row r="612" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C612" s="3"/>
       <c r="G612" s="3"/>
       <c r="J612" s="4"/>
     </row>
-    <row r="613">
+    <row r="613" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C613" s="3"/>
       <c r="G613" s="3"/>
       <c r="J613" s="4"/>
     </row>
-    <row r="614">
+    <row r="614" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C614" s="3"/>
       <c r="G614" s="3"/>
       <c r="J614" s="4"/>
     </row>
-    <row r="615">
+    <row r="615" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C615" s="3"/>
       <c r="G615" s="3"/>
       <c r="J615" s="4"/>
     </row>
-    <row r="616">
+    <row r="616" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C616" s="3"/>
       <c r="G616" s="3"/>
       <c r="J616" s="4"/>
     </row>
-    <row r="617">
+    <row r="617" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C617" s="3"/>
       <c r="G617" s="3"/>
       <c r="J617" s="4"/>
     </row>
-    <row r="618">
+    <row r="618" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C618" s="3"/>
       <c r="G618" s="3"/>
       <c r="J618" s="4"/>
     </row>
-    <row r="619">
+    <row r="619" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C619" s="3"/>
       <c r="G619" s="3"/>
       <c r="J619" s="4"/>
     </row>
-    <row r="620">
+    <row r="620" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C620" s="3"/>
       <c r="G620" s="3"/>
       <c r="J620" s="4"/>
     </row>
-    <row r="621">
+    <row r="621" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C621" s="3"/>
       <c r="G621" s="3"/>
       <c r="J621" s="4"/>
     </row>
-    <row r="622">
+    <row r="622" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C622" s="3"/>
       <c r="G622" s="3"/>
       <c r="J622" s="4"/>
     </row>
-    <row r="623">
+    <row r="623" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C623" s="3"/>
       <c r="G623" s="3"/>
       <c r="J623" s="4"/>
     </row>
-    <row r="624">
+    <row r="624" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C624" s="3"/>
       <c r="G624" s="3"/>
       <c r="J624" s="4"/>
     </row>
-    <row r="625">
+    <row r="625" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C625" s="3"/>
       <c r="G625" s="3"/>
       <c r="J625" s="4"/>
     </row>
-    <row r="626">
+    <row r="626" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C626" s="3"/>
       <c r="G626" s="3"/>
       <c r="J626" s="4"/>
     </row>
-    <row r="627">
+    <row r="627" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C627" s="3"/>
       <c r="G627" s="3"/>
       <c r="J627" s="4"/>
     </row>
-    <row r="628">
+    <row r="628" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C628" s="3"/>
       <c r="G628" s="3"/>
       <c r="J628" s="4"/>
     </row>
-    <row r="629">
+    <row r="629" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C629" s="3"/>
       <c r="G629" s="3"/>
       <c r="J629" s="4"/>
     </row>
-    <row r="630">
+    <row r="630" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C630" s="3"/>
       <c r="G630" s="3"/>
       <c r="J630" s="4"/>
     </row>
-    <row r="631">
+    <row r="631" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C631" s="3"/>
       <c r="G631" s="3"/>
       <c r="J631" s="4"/>
     </row>
-    <row r="632">
+    <row r="632" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C632" s="3"/>
       <c r="G632" s="3"/>
       <c r="J632" s="4"/>
     </row>
-    <row r="633">
+    <row r="633" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C633" s="3"/>
       <c r="G633" s="3"/>
       <c r="J633" s="4"/>
     </row>
-    <row r="634">
+    <row r="634" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C634" s="3"/>
       <c r="G634" s="3"/>
       <c r="J634" s="4"/>
     </row>
-    <row r="635">
+    <row r="635" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C635" s="3"/>
       <c r="G635" s="3"/>
       <c r="J635" s="4"/>
     </row>
-    <row r="636">
+    <row r="636" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C636" s="3"/>
       <c r="G636" s="3"/>
       <c r="J636" s="4"/>
     </row>
-    <row r="637">
+    <row r="637" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C637" s="3"/>
       <c r="G637" s="3"/>
       <c r="J637" s="4"/>
     </row>
-    <row r="638">
+    <row r="638" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C638" s="3"/>
       <c r="G638" s="3"/>
       <c r="J638" s="4"/>
     </row>
-    <row r="639">
+    <row r="639" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C639" s="3"/>
       <c r="G639" s="3"/>
       <c r="J639" s="4"/>
     </row>
-    <row r="640">
+    <row r="640" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C640" s="3"/>
       <c r="G640" s="3"/>
       <c r="J640" s="4"/>
     </row>
-    <row r="641">
+    <row r="641" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C641" s="3"/>
       <c r="G641" s="3"/>
       <c r="J641" s="4"/>
     </row>
-    <row r="642">
+    <row r="642" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C642" s="3"/>
       <c r="G642" s="3"/>
       <c r="J642" s="4"/>
     </row>
-    <row r="643">
+    <row r="643" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C643" s="3"/>
       <c r="G643" s="3"/>
       <c r="J643" s="4"/>
     </row>
-    <row r="644">
+    <row r="644" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C644" s="3"/>
       <c r="G644" s="3"/>
       <c r="J644" s="4"/>
     </row>
-    <row r="645">
+    <row r="645" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C645" s="3"/>
       <c r="G645" s="3"/>
       <c r="J645" s="4"/>
     </row>
-    <row r="646">
+    <row r="646" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C646" s="3"/>
       <c r="G646" s="3"/>
       <c r="J646" s="4"/>
     </row>
-    <row r="647">
+    <row r="647" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C647" s="3"/>
       <c r="G647" s="3"/>
       <c r="J647" s="4"/>
     </row>
-    <row r="648">
+    <row r="648" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C648" s="3"/>
       <c r="G648" s="3"/>
       <c r="J648" s="4"/>
     </row>
-    <row r="649">
+    <row r="649" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C649" s="3"/>
       <c r="G649" s="3"/>
       <c r="J649" s="4"/>
     </row>
-    <row r="650">
+    <row r="650" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C650" s="3"/>
       <c r="G650" s="3"/>
       <c r="J650" s="4"/>
     </row>
-    <row r="651">
+    <row r="651" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C651" s="3"/>
       <c r="G651" s="3"/>
       <c r="J651" s="4"/>
     </row>
-    <row r="652">
+    <row r="652" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C652" s="3"/>
       <c r="G652" s="3"/>
       <c r="J652" s="4"/>
     </row>
-    <row r="653">
+    <row r="653" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C653" s="3"/>
       <c r="G653" s="3"/>
       <c r="J653" s="4"/>
     </row>
-    <row r="654">
+    <row r="654" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C654" s="3"/>
       <c r="G654" s="3"/>
       <c r="J654" s="4"/>
     </row>
-    <row r="655">
+    <row r="655" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C655" s="3"/>
       <c r="G655" s="3"/>
       <c r="J655" s="4"/>
     </row>
-    <row r="656">
+    <row r="656" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C656" s="3"/>
       <c r="G656" s="3"/>
       <c r="J656" s="4"/>
     </row>
-    <row r="657">
+    <row r="657" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C657" s="3"/>
       <c r="G657" s="3"/>
       <c r="J657" s="4"/>
     </row>
-    <row r="658">
+    <row r="658" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C658" s="3"/>
       <c r="G658" s="3"/>
       <c r="J658" s="4"/>
     </row>
-    <row r="659">
+    <row r="659" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C659" s="3"/>
       <c r="G659" s="3"/>
       <c r="J659" s="4"/>
     </row>
-    <row r="660">
+    <row r="660" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C660" s="3"/>
       <c r="G660" s="3"/>
       <c r="J660" s="4"/>
     </row>
-    <row r="661">
+    <row r="661" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C661" s="3"/>
       <c r="G661" s="3"/>
       <c r="J661" s="4"/>
     </row>
-    <row r="662">
+    <row r="662" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C662" s="3"/>
       <c r="G662" s="3"/>
       <c r="J662" s="4"/>
     </row>
-    <row r="663">
+    <row r="663" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C663" s="3"/>
       <c r="G663" s="3"/>
       <c r="J663" s="4"/>
     </row>
-    <row r="664">
+    <row r="664" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C664" s="3"/>
       <c r="G664" s="3"/>
       <c r="J664" s="4"/>
     </row>
-    <row r="665">
+    <row r="665" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C665" s="3"/>
       <c r="G665" s="3"/>
       <c r="J665" s="4"/>
     </row>
-    <row r="666">
+    <row r="666" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C666" s="3"/>
       <c r="G666" s="3"/>
       <c r="J666" s="4"/>
     </row>
-    <row r="667">
+    <row r="667" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C667" s="3"/>
       <c r="G667" s="3"/>
       <c r="J667" s="4"/>
     </row>
-    <row r="668">
+    <row r="668" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C668" s="3"/>
       <c r="G668" s="3"/>
       <c r="J668" s="4"/>
     </row>
-    <row r="669">
+    <row r="669" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C669" s="3"/>
       <c r="G669" s="3"/>
       <c r="J669" s="4"/>
     </row>
-    <row r="670">
+    <row r="670" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C670" s="3"/>
       <c r="G670" s="3"/>
       <c r="J670" s="4"/>
     </row>
-    <row r="671">
+    <row r="671" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C671" s="3"/>
       <c r="G671" s="3"/>
       <c r="J671" s="4"/>
     </row>
-    <row r="672">
+    <row r="672" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C672" s="3"/>
       <c r="G672" s="3"/>
       <c r="J672" s="4"/>
     </row>
-    <row r="673">
+    <row r="673" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C673" s="3"/>
       <c r="G673" s="3"/>
       <c r="J673" s="4"/>
     </row>
-    <row r="674">
+    <row r="674" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C674" s="3"/>
       <c r="G674" s="3"/>
       <c r="J674" s="4"/>
     </row>
-    <row r="675">
+    <row r="675" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C675" s="3"/>
       <c r="G675" s="3"/>
       <c r="J675" s="4"/>
     </row>
-    <row r="676">
+    <row r="676" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C676" s="3"/>
       <c r="G676" s="3"/>
       <c r="J676" s="4"/>
     </row>
-    <row r="677">
+    <row r="677" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C677" s="3"/>
       <c r="G677" s="3"/>
       <c r="J677" s="4"/>
     </row>
-    <row r="678">
+    <row r="678" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C678" s="3"/>
       <c r="G678" s="3"/>
       <c r="J678" s="4"/>
     </row>
-    <row r="679">
+    <row r="679" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C679" s="3"/>
       <c r="G679" s="3"/>
       <c r="J679" s="4"/>
     </row>
-    <row r="680">
+    <row r="680" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C680" s="3"/>
       <c r="G680" s="3"/>
       <c r="J680" s="4"/>
     </row>
-    <row r="681">
+    <row r="681" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C681" s="3"/>
       <c r="G681" s="3"/>
       <c r="J681" s="4"/>
     </row>
-    <row r="682">
+    <row r="682" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C682" s="3"/>
       <c r="G682" s="3"/>
       <c r="J682" s="4"/>
     </row>
-    <row r="683">
+    <row r="683" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C683" s="3"/>
       <c r="G683" s="3"/>
       <c r="J683" s="4"/>
     </row>
-    <row r="684">
+    <row r="684" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C684" s="3"/>
       <c r="G684" s="3"/>
       <c r="J684" s="4"/>
     </row>
-    <row r="685">
+    <row r="685" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C685" s="3"/>
       <c r="G685" s="3"/>
       <c r="J685" s="4"/>
     </row>
-    <row r="686">
+    <row r="686" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C686" s="3"/>
       <c r="G686" s="3"/>
       <c r="J686" s="4"/>
     </row>
-    <row r="687">
+    <row r="687" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C687" s="3"/>
       <c r="G687" s="3"/>
       <c r="J687" s="4"/>
     </row>
-    <row r="688">
+    <row r="688" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C688" s="3"/>
       <c r="G688" s="3"/>
       <c r="J688" s="4"/>
     </row>
-    <row r="689">
+    <row r="689" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C689" s="3"/>
       <c r="G689" s="3"/>
       <c r="J689" s="4"/>
     </row>
-    <row r="690">
+    <row r="690" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C690" s="3"/>
       <c r="G690" s="3"/>
       <c r="J690" s="4"/>
     </row>
-    <row r="691">
+    <row r="691" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C691" s="3"/>
       <c r="G691" s="3"/>
       <c r="J691" s="4"/>
     </row>
-    <row r="692">
+    <row r="692" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C692" s="3"/>
       <c r="G692" s="3"/>
       <c r="J692" s="4"/>
     </row>
-    <row r="693">
+    <row r="693" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C693" s="3"/>
       <c r="G693" s="3"/>
       <c r="J693" s="4"/>
     </row>
-    <row r="694">
+    <row r="694" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C694" s="3"/>
       <c r="G694" s="3"/>
       <c r="J694" s="4"/>
     </row>
-    <row r="695">
+    <row r="695" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C695" s="3"/>
       <c r="G695" s="3"/>
       <c r="J695" s="4"/>
     </row>
-    <row r="696">
+    <row r="696" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C696" s="3"/>
       <c r="G696" s="3"/>
       <c r="J696" s="4"/>
     </row>
-    <row r="697">
+    <row r="697" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C697" s="3"/>
       <c r="G697" s="3"/>
       <c r="J697" s="4"/>
     </row>
-    <row r="698">
+    <row r="698" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C698" s="3"/>
       <c r="G698" s="3"/>
       <c r="J698" s="4"/>
     </row>
-    <row r="699">
+    <row r="699" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C699" s="3"/>
       <c r="G699" s="3"/>
       <c r="J699" s="4"/>
     </row>
-    <row r="700">
+    <row r="700" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C700" s="3"/>
       <c r="G700" s="3"/>
       <c r="J700" s="4"/>
     </row>
-    <row r="701">
+    <row r="701" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C701" s="3"/>
       <c r="G701" s="3"/>
       <c r="J701" s="4"/>
     </row>
-    <row r="702">
+    <row r="702" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C702" s="3"/>
       <c r="G702" s="3"/>
       <c r="J702" s="4"/>
     </row>
-    <row r="703">
+    <row r="703" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C703" s="3"/>
       <c r="G703" s="3"/>
       <c r="J703" s="4"/>
     </row>
-    <row r="704">
+    <row r="704" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C704" s="3"/>
       <c r="G704" s="3"/>
       <c r="J704" s="4"/>
     </row>
-    <row r="705">
+    <row r="705" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C705" s="3"/>
       <c r="G705" s="3"/>
       <c r="J705" s="4"/>
     </row>
-    <row r="706">
+    <row r="706" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C706" s="3"/>
       <c r="G706" s="3"/>
       <c r="J706" s="4"/>
     </row>
-    <row r="707">
+    <row r="707" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C707" s="3"/>
       <c r="G707" s="3"/>
       <c r="J707" s="4"/>
     </row>
-    <row r="708">
+    <row r="708" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C708" s="3"/>
       <c r="G708" s="3"/>
       <c r="J708" s="4"/>
     </row>
-    <row r="709">
+    <row r="709" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C709" s="3"/>
       <c r="G709" s="3"/>
       <c r="J709" s="4"/>
     </row>
-    <row r="710">
+    <row r="710" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C710" s="3"/>
       <c r="G710" s="3"/>
       <c r="J710" s="4"/>
     </row>
-    <row r="711">
+    <row r="711" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C711" s="3"/>
       <c r="G711" s="3"/>
       <c r="J711" s="4"/>
     </row>
-    <row r="712">
+    <row r="712" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C712" s="3"/>
       <c r="G712" s="3"/>
       <c r="J712" s="4"/>
     </row>
-    <row r="713">
+    <row r="713" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C713" s="3"/>
       <c r="G713" s="3"/>
       <c r="J713" s="4"/>
     </row>
-    <row r="714">
+    <row r="714" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C714" s="3"/>
       <c r="G714" s="3"/>
       <c r="J714" s="4"/>
     </row>
-    <row r="715">
+    <row r="715" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C715" s="3"/>
       <c r="G715" s="3"/>
       <c r="J715" s="4"/>
     </row>
-    <row r="716">
+    <row r="716" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C716" s="3"/>
       <c r="G716" s="3"/>
       <c r="J716" s="4"/>
     </row>
-    <row r="717">
+    <row r="717" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C717" s="3"/>
       <c r="G717" s="3"/>
       <c r="J717" s="4"/>
     </row>
-    <row r="718">
+    <row r="718" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C718" s="3"/>
       <c r="G718" s="3"/>
       <c r="J718" s="4"/>
     </row>
-    <row r="719">
+    <row r="719" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C719" s="3"/>
       <c r="G719" s="3"/>
       <c r="J719" s="4"/>
     </row>
-    <row r="720">
+    <row r="720" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C720" s="3"/>
       <c r="G720" s="3"/>
       <c r="J720" s="4"/>
     </row>
-    <row r="721">
+    <row r="721" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C721" s="3"/>
       <c r="G721" s="3"/>
       <c r="J721" s="4"/>
     </row>
-    <row r="722">
+    <row r="722" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C722" s="3"/>
       <c r="G722" s="3"/>
       <c r="J722" s="4"/>
     </row>
-    <row r="723">
+    <row r="723" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C723" s="3"/>
       <c r="G723" s="3"/>
       <c r="J723" s="4"/>
     </row>
-    <row r="724">
+    <row r="724" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C724" s="3"/>
       <c r="G724" s="3"/>
       <c r="J724" s="4"/>
     </row>
-    <row r="725">
+    <row r="725" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C725" s="3"/>
       <c r="G725" s="3"/>
       <c r="J725" s="4"/>
     </row>
-    <row r="726">
+    <row r="726" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C726" s="3"/>
       <c r="G726" s="3"/>
       <c r="J726" s="4"/>
     </row>
-    <row r="727">
+    <row r="727" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C727" s="3"/>
       <c r="G727" s="3"/>
       <c r="J727" s="4"/>
     </row>
-    <row r="728">
+    <row r="728" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C728" s="3"/>
       <c r="G728" s="3"/>
       <c r="J728" s="4"/>
     </row>
-    <row r="729">
+    <row r="729" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C729" s="3"/>
       <c r="G729" s="3"/>
       <c r="J729" s="4"/>
     </row>
-    <row r="730">
+    <row r="730" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C730" s="3"/>
       <c r="G730" s="3"/>
       <c r="J730" s="4"/>
     </row>
-    <row r="731">
+    <row r="731" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C731" s="3"/>
       <c r="G731" s="3"/>
       <c r="J731" s="4"/>
     </row>
-    <row r="732">
+    <row r="732" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C732" s="3"/>
       <c r="G732" s="3"/>
       <c r="J732" s="4"/>
     </row>
-    <row r="733">
+    <row r="733" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C733" s="3"/>
       <c r="G733" s="3"/>
       <c r="J733" s="4"/>
     </row>
-    <row r="734">
+    <row r="734" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C734" s="3"/>
       <c r="G734" s="3"/>
       <c r="J734" s="4"/>
     </row>
-    <row r="735">
+    <row r="735" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C735" s="3"/>
       <c r="G735" s="3"/>
       <c r="J735" s="4"/>
     </row>
-    <row r="736">
+    <row r="736" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C736" s="3"/>
       <c r="G736" s="3"/>
       <c r="J736" s="4"/>
     </row>
-    <row r="737">
+    <row r="737" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C737" s="3"/>
       <c r="G737" s="3"/>
       <c r="J737" s="4"/>
     </row>
-    <row r="738">
+    <row r="738" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C738" s="3"/>
       <c r="G738" s="3"/>
       <c r="J738" s="4"/>
     </row>
-    <row r="739">
+    <row r="739" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C739" s="3"/>
       <c r="G739" s="3"/>
       <c r="J739" s="4"/>
     </row>
-    <row r="740">
+    <row r="740" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C740" s="3"/>
       <c r="G740" s="3"/>
       <c r="J740" s="4"/>
     </row>
-    <row r="741">
+    <row r="741" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C741" s="3"/>
       <c r="G741" s="3"/>
       <c r="J741" s="4"/>
     </row>
-    <row r="742">
+    <row r="742" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C742" s="3"/>
       <c r="G742" s="3"/>
       <c r="J742" s="4"/>
     </row>
-    <row r="743">
+    <row r="743" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C743" s="3"/>
       <c r="G743" s="3"/>
       <c r="J743" s="4"/>
     </row>
-    <row r="744">
+    <row r="744" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C744" s="3"/>
       <c r="G744" s="3"/>
       <c r="J744" s="4"/>
     </row>
-    <row r="745">
+    <row r="745" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C745" s="3"/>
       <c r="G745" s="3"/>
       <c r="J745" s="4"/>
     </row>
-    <row r="746">
+    <row r="746" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C746" s="3"/>
       <c r="G746" s="3"/>
       <c r="J746" s="4"/>
     </row>
-    <row r="747">
+    <row r="747" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C747" s="3"/>
       <c r="G747" s="3"/>
       <c r="J747" s="4"/>
     </row>
-    <row r="748">
+    <row r="748" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C748" s="3"/>
       <c r="G748" s="3"/>
       <c r="J748" s="4"/>
     </row>
-    <row r="749">
+    <row r="749" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C749" s="3"/>
       <c r="G749" s="3"/>
       <c r="J749" s="4"/>
     </row>
-    <row r="750">
+    <row r="750" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C750" s="3"/>
       <c r="G750" s="3"/>
       <c r="J750" s="4"/>
     </row>
-    <row r="751">
+    <row r="751" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C751" s="3"/>
       <c r="G751" s="3"/>
       <c r="J751" s="4"/>
     </row>
-    <row r="752">
+    <row r="752" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C752" s="3"/>
       <c r="G752" s="3"/>
       <c r="J752" s="4"/>
     </row>
-    <row r="753">
+    <row r="753" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C753" s="3"/>
       <c r="G753" s="3"/>
       <c r="J753" s="4"/>
     </row>
-    <row r="754">
+    <row r="754" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C754" s="3"/>
       <c r="G754" s="3"/>
       <c r="J754" s="4"/>
     </row>
-    <row r="755">
+    <row r="755" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C755" s="3"/>
       <c r="G755" s="3"/>
       <c r="J755" s="4"/>
     </row>
-    <row r="756">
+    <row r="756" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C756" s="3"/>
       <c r="G756" s="3"/>
       <c r="J756" s="4"/>
     </row>
-    <row r="757">
+    <row r="757" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C757" s="3"/>
       <c r="G757" s="3"/>
       <c r="J757" s="4"/>
     </row>
-    <row r="758">
+    <row r="758" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C758" s="3"/>
       <c r="G758" s="3"/>
       <c r="J758" s="4"/>
     </row>
-    <row r="759">
+    <row r="759" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C759" s="3"/>
       <c r="G759" s="3"/>
       <c r="J759" s="4"/>
     </row>
-    <row r="760">
+    <row r="760" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C760" s="3"/>
       <c r="G760" s="3"/>
       <c r="J760" s="4"/>
     </row>
-    <row r="761">
+    <row r="761" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C761" s="3"/>
       <c r="G761" s="3"/>
       <c r="J761" s="4"/>
     </row>
-    <row r="762">
+    <row r="762" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C762" s="3"/>
       <c r="G762" s="3"/>
       <c r="J762" s="4"/>
     </row>
-    <row r="763">
+    <row r="763" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C763" s="3"/>
       <c r="G763" s="3"/>
       <c r="J763" s="4"/>
     </row>
-    <row r="764">
+    <row r="764" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C764" s="3"/>
       <c r="G764" s="3"/>
       <c r="J764" s="4"/>
     </row>
-    <row r="765">
+    <row r="765" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C765" s="3"/>
       <c r="G765" s="3"/>
       <c r="J765" s="4"/>
     </row>
-    <row r="766">
+    <row r="766" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C766" s="3"/>
       <c r="G766" s="3"/>
       <c r="J766" s="4"/>
     </row>
-    <row r="767">
+    <row r="767" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C767" s="3"/>
       <c r="G767" s="3"/>
       <c r="J767" s="4"/>
     </row>
-    <row r="768">
+    <row r="768" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C768" s="3"/>
       <c r="G768" s="3"/>
       <c r="J768" s="4"/>
     </row>
-    <row r="769">
+    <row r="769" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C769" s="3"/>
       <c r="G769" s="3"/>
       <c r="J769" s="4"/>
     </row>
-    <row r="770">
+    <row r="770" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C770" s="3"/>
       <c r="G770" s="3"/>
       <c r="J770" s="4"/>
     </row>
-    <row r="771">
+    <row r="771" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C771" s="3"/>
       <c r="G771" s="3"/>
       <c r="J771" s="4"/>
     </row>
-    <row r="772">
+    <row r="772" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C772" s="3"/>
       <c r="G772" s="3"/>
       <c r="J772" s="4"/>
     </row>
-    <row r="773">
+    <row r="773" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C773" s="3"/>
       <c r="G773" s="3"/>
       <c r="J773" s="4"/>
     </row>
-    <row r="774">
+    <row r="774" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C774" s="3"/>
       <c r="G774" s="3"/>
       <c r="J774" s="4"/>
     </row>
-    <row r="775">
+    <row r="775" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C775" s="3"/>
       <c r="G775" s="3"/>
       <c r="J775" s="4"/>
     </row>
-    <row r="776">
+    <row r="776" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C776" s="3"/>
       <c r="G776" s="3"/>
       <c r="J776" s="4"/>
     </row>
-    <row r="777">
+    <row r="777" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C777" s="3"/>
       <c r="G777" s="3"/>
       <c r="J777" s="4"/>
     </row>
-    <row r="778">
+    <row r="778" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C778" s="3"/>
       <c r="G778" s="3"/>
       <c r="J778" s="4"/>
     </row>
-    <row r="779">
+    <row r="779" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C779" s="3"/>
       <c r="G779" s="3"/>
       <c r="J779" s="4"/>
     </row>
-    <row r="780">
+    <row r="780" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C780" s="3"/>
       <c r="G780" s="3"/>
       <c r="J780" s="4"/>
     </row>
-    <row r="781">
+    <row r="781" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C781" s="3"/>
       <c r="G781" s="3"/>
       <c r="J781" s="4"/>
     </row>
-    <row r="782">
+    <row r="782" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C782" s="3"/>
       <c r="G782" s="3"/>
       <c r="J782" s="4"/>
     </row>
-    <row r="783">
+    <row r="783" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C783" s="3"/>
       <c r="G783" s="3"/>
       <c r="J783" s="4"/>
     </row>
-    <row r="784">
+    <row r="784" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C784" s="3"/>
       <c r="G784" s="3"/>
       <c r="J784" s="4"/>
     </row>
-    <row r="785">
+    <row r="785" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C785" s="3"/>
       <c r="G785" s="3"/>
       <c r="J785" s="4"/>
     </row>
-    <row r="786">
+    <row r="786" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C786" s="3"/>
       <c r="G786" s="3"/>
       <c r="J786" s="4"/>
     </row>
-    <row r="787">
+    <row r="787" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C787" s="3"/>
       <c r="G787" s="3"/>
       <c r="J787" s="4"/>
     </row>
-    <row r="788">
+    <row r="788" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C788" s="3"/>
       <c r="G788" s="3"/>
       <c r="J788" s="4"/>
     </row>
-    <row r="789">
+    <row r="789" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C789" s="3"/>
       <c r="G789" s="3"/>
       <c r="J789" s="4"/>
     </row>
-    <row r="790">
+    <row r="790" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C790" s="3"/>
       <c r="G790" s="3"/>
       <c r="J790" s="4"/>
     </row>
-    <row r="791">
+    <row r="791" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C791" s="3"/>
       <c r="G791" s="3"/>
       <c r="J791" s="4"/>
     </row>
-    <row r="792">
+    <row r="792" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C792" s="3"/>
       <c r="G792" s="3"/>
       <c r="J792" s="4"/>
     </row>
-    <row r="793">
+    <row r="793" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C793" s="3"/>
       <c r="G793" s="3"/>
       <c r="J793" s="4"/>
     </row>
-    <row r="794">
+    <row r="794" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C794" s="3"/>
       <c r="G794" s="3"/>
       <c r="J794" s="4"/>
     </row>
-    <row r="795">
+    <row r="795" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C795" s="3"/>
       <c r="G795" s="3"/>
       <c r="J795" s="4"/>
     </row>
-    <row r="796">
+    <row r="796" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C796" s="3"/>
       <c r="G796" s="3"/>
       <c r="J796" s="4"/>
     </row>
-    <row r="797">
+    <row r="797" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C797" s="3"/>
       <c r="G797" s="3"/>
       <c r="J797" s="4"/>
     </row>
-    <row r="798">
+    <row r="798" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C798" s="3"/>
       <c r="G798" s="3"/>
       <c r="J798" s="4"/>
     </row>
-    <row r="799">
+    <row r="799" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C799" s="3"/>
       <c r="G799" s="3"/>
       <c r="J799" s="4"/>
     </row>
-    <row r="800">
+    <row r="800" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C800" s="3"/>
       <c r="G800" s="3"/>
       <c r="J800" s="4"/>
     </row>
-    <row r="801">
+    <row r="801" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C801" s="3"/>
       <c r="G801" s="3"/>
       <c r="J801" s="4"/>
     </row>
-    <row r="802">
+    <row r="802" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C802" s="3"/>
       <c r="G802" s="3"/>
       <c r="J802" s="4"/>
     </row>
-    <row r="803">
+    <row r="803" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C803" s="3"/>
       <c r="G803" s="3"/>
       <c r="J803" s="4"/>
     </row>
-    <row r="804">
+    <row r="804" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C804" s="3"/>
       <c r="G804" s="3"/>
       <c r="J804" s="4"/>
     </row>
-    <row r="805">
+    <row r="805" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C805" s="3"/>
       <c r="G805" s="3"/>
       <c r="J805" s="4"/>
     </row>
-    <row r="806">
+    <row r="806" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C806" s="3"/>
       <c r="G806" s="3"/>
       <c r="J806" s="4"/>
     </row>
-    <row r="807">
+    <row r="807" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C807" s="3"/>
       <c r="G807" s="3"/>
       <c r="J807" s="4"/>
     </row>
-    <row r="808">
+    <row r="808" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C808" s="3"/>
       <c r="G808" s="3"/>
       <c r="J808" s="4"/>
     </row>
-    <row r="809">
+    <row r="809" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C809" s="3"/>
       <c r="G809" s="3"/>
       <c r="J809" s="4"/>
     </row>
-    <row r="810">
+    <row r="810" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C810" s="3"/>
       <c r="G810" s="3"/>
       <c r="J810" s="4"/>
     </row>
-    <row r="811">
+    <row r="811" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C811" s="3"/>
       <c r="G811" s="3"/>
       <c r="J811" s="4"/>
     </row>
-    <row r="812">
+    <row r="812" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C812" s="3"/>
       <c r="G812" s="3"/>
       <c r="J812" s="4"/>
     </row>
-    <row r="813">
+    <row r="813" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C813" s="3"/>
       <c r="G813" s="3"/>
       <c r="J813" s="4"/>
     </row>
-    <row r="814">
+    <row r="814" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C814" s="3"/>
       <c r="G814" s="3"/>
       <c r="J814" s="4"/>
     </row>
-    <row r="815">
+    <row r="815" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C815" s="3"/>
       <c r="G815" s="3"/>
       <c r="J815" s="4"/>
     </row>
-    <row r="816">
+    <row r="816" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C816" s="3"/>
       <c r="G816" s="3"/>
       <c r="J816" s="4"/>
     </row>
-    <row r="817">
+    <row r="817" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C817" s="3"/>
       <c r="G817" s="3"/>
       <c r="J817" s="4"/>
     </row>
-    <row r="818">
+    <row r="818" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C818" s="3"/>
       <c r="G818" s="3"/>
       <c r="J818" s="4"/>
     </row>
-    <row r="819">
+    <row r="819" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C819" s="3"/>
       <c r="G819" s="3"/>
       <c r="J819" s="4"/>
     </row>
-    <row r="820">
+    <row r="820" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C820" s="3"/>
       <c r="G820" s="3"/>
       <c r="J820" s="4"/>
     </row>
-    <row r="821">
+    <row r="821" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C821" s="3"/>
       <c r="G821" s="3"/>
       <c r="J821" s="4"/>
     </row>
-    <row r="822">
+    <row r="822" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C822" s="3"/>
       <c r="G822" s="3"/>
       <c r="J822" s="4"/>
     </row>
-    <row r="823">
+    <row r="823" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C823" s="3"/>
       <c r="G823" s="3"/>
       <c r="J823" s="4"/>
     </row>
-    <row r="824">
+    <row r="824" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C824" s="3"/>
       <c r="G824" s="3"/>
       <c r="J824" s="4"/>
     </row>
-    <row r="825">
+    <row r="825" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C825" s="3"/>
       <c r="G825" s="3"/>
       <c r="J825" s="4"/>
     </row>
-    <row r="826">
+    <row r="826" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C826" s="3"/>
       <c r="G826" s="3"/>
       <c r="J826" s="4"/>
     </row>
-    <row r="827">
+    <row r="827" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C827" s="3"/>
       <c r="G827" s="3"/>
       <c r="J827" s="4"/>
     </row>
-    <row r="828">
+    <row r="828" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C828" s="3"/>
       <c r="G828" s="3"/>
       <c r="J828" s="4"/>
     </row>
-    <row r="829">
+    <row r="829" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C829" s="3"/>
       <c r="G829" s="3"/>
       <c r="J829" s="4"/>
     </row>
-    <row r="830">
+    <row r="830" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C830" s="3"/>
       <c r="G830" s="3"/>
       <c r="J830" s="4"/>
     </row>
-    <row r="831">
+    <row r="831" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C831" s="3"/>
       <c r="G831" s="3"/>
       <c r="J831" s="4"/>
     </row>
-    <row r="832">
+    <row r="832" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C832" s="3"/>
       <c r="G832" s="3"/>
       <c r="J832" s="4"/>
     </row>
-    <row r="833">
+    <row r="833" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C833" s="3"/>
       <c r="G833" s="3"/>
       <c r="J833" s="4"/>
     </row>
-    <row r="834">
+    <row r="834" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C834" s="3"/>
       <c r="G834" s="3"/>
       <c r="J834" s="4"/>
     </row>
-    <row r="835">
+    <row r="835" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C835" s="3"/>
       <c r="G835" s="3"/>
       <c r="J835" s="4"/>
     </row>
-    <row r="836">
+    <row r="836" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C836" s="3"/>
       <c r="G836" s="3"/>
       <c r="J836" s="4"/>
     </row>
-    <row r="837">
+    <row r="837" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C837" s="3"/>
       <c r="G837" s="3"/>
       <c r="J837" s="4"/>
     </row>
-    <row r="838">
+    <row r="838" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C838" s="3"/>
       <c r="G838" s="3"/>
       <c r="J838" s="4"/>
     </row>
-    <row r="839">
+    <row r="839" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C839" s="3"/>
       <c r="G839" s="3"/>
       <c r="J839" s="4"/>
     </row>
-    <row r="840">
+    <row r="840" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C840" s="3"/>
       <c r="G840" s="3"/>
       <c r="J840" s="4"/>
     </row>
-    <row r="841">
+    <row r="841" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C841" s="3"/>
       <c r="G841" s="3"/>
       <c r="J841" s="4"/>
     </row>
-    <row r="842">
+    <row r="842" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C842" s="3"/>
       <c r="G842" s="3"/>
       <c r="J842" s="4"/>
     </row>
-    <row r="843">
+    <row r="843" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C843" s="3"/>
       <c r="G843" s="3"/>
       <c r="J843" s="4"/>
     </row>
-    <row r="844">
+    <row r="844" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C844" s="3"/>
       <c r="G844" s="3"/>
       <c r="J844" s="4"/>
     </row>
-    <row r="845">
+    <row r="845" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C845" s="3"/>
       <c r="G845" s="3"/>
       <c r="J845" s="4"/>
     </row>
-    <row r="846">
+    <row r="846" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C846" s="3"/>
       <c r="G846" s="3"/>
       <c r="J846" s="4"/>
     </row>
-    <row r="847">
+    <row r="847" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C847" s="3"/>
       <c r="G847" s="3"/>
       <c r="J847" s="4"/>
     </row>
-    <row r="848">
+    <row r="848" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C848" s="3"/>
       <c r="G848" s="3"/>
       <c r="J848" s="4"/>
     </row>
-    <row r="849">
+    <row r="849" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C849" s="3"/>
       <c r="G849" s="3"/>
       <c r="J849" s="4"/>
     </row>
-    <row r="850">
+    <row r="850" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C850" s="3"/>
       <c r="G850" s="3"/>
       <c r="J850" s="4"/>
     </row>
-    <row r="851">
+    <row r="851" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C851" s="3"/>
       <c r="G851" s="3"/>
       <c r="J851" s="4"/>
     </row>
-    <row r="852">
+    <row r="852" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C852" s="3"/>
       <c r="G852" s="3"/>
       <c r="J852" s="4"/>
     </row>
-    <row r="853">
+    <row r="853" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C853" s="3"/>
       <c r="G853" s="3"/>
       <c r="J853" s="4"/>
     </row>
-    <row r="854">
+    <row r="854" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C854" s="3"/>
       <c r="G854" s="3"/>
       <c r="J854" s="4"/>
     </row>
-    <row r="855">
+    <row r="855" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C855" s="3"/>
       <c r="G855" s="3"/>
       <c r="J855" s="4"/>
     </row>
-    <row r="856">
+    <row r="856" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C856" s="3"/>
       <c r="G856" s="3"/>
       <c r="J856" s="4"/>
     </row>
-    <row r="857">
+    <row r="857" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C857" s="3"/>
       <c r="G857" s="3"/>
       <c r="J857" s="4"/>
     </row>
-    <row r="858">
+    <row r="858" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C858" s="3"/>
       <c r="G858" s="3"/>
       <c r="J858" s="4"/>
     </row>
-    <row r="859">
+    <row r="859" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C859" s="3"/>
       <c r="G859" s="3"/>
       <c r="J859" s="4"/>
     </row>
-    <row r="860">
+    <row r="860" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C860" s="3"/>
       <c r="G860" s="3"/>
       <c r="J860" s="4"/>
     </row>
-    <row r="861">
+    <row r="861" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C861" s="3"/>
       <c r="G861" s="3"/>
       <c r="J861" s="4"/>
     </row>
-    <row r="862">
+    <row r="862" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C862" s="3"/>
       <c r="G862" s="3"/>
       <c r="J862" s="4"/>
     </row>
-    <row r="863">
+    <row r="863" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C863" s="3"/>
       <c r="G863" s="3"/>
       <c r="J863" s="4"/>
     </row>
-    <row r="864">
+    <row r="864" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C864" s="3"/>
       <c r="G864" s="3"/>
       <c r="J864" s="4"/>
     </row>
-    <row r="865">
+    <row r="865" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C865" s="3"/>
       <c r="G865" s="3"/>
       <c r="J865" s="4"/>
     </row>
-    <row r="866">
+    <row r="866" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C866" s="3"/>
       <c r="G866" s="3"/>
       <c r="J866" s="4"/>
     </row>
-    <row r="867">
+    <row r="867" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C867" s="3"/>
       <c r="G867" s="3"/>
       <c r="J867" s="4"/>
     </row>
-    <row r="868">
+    <row r="868" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C868" s="3"/>
       <c r="G868" s="3"/>
       <c r="J868" s="4"/>
     </row>
-    <row r="869">
+    <row r="869" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C869" s="3"/>
       <c r="G869" s="3"/>
       <c r="J869" s="4"/>
     </row>
-    <row r="870">
+    <row r="870" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C870" s="3"/>
       <c r="G870" s="3"/>
       <c r="J870" s="4"/>
     </row>
-    <row r="871">
+    <row r="871" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C871" s="3"/>
       <c r="G871" s="3"/>
       <c r="J871" s="4"/>
     </row>
-    <row r="872">
+    <row r="872" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C872" s="3"/>
       <c r="G872" s="3"/>
       <c r="J872" s="4"/>
     </row>
-    <row r="873">
+    <row r="873" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C873" s="3"/>
       <c r="G873" s="3"/>
       <c r="J873" s="4"/>
     </row>
-    <row r="874">
+    <row r="874" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C874" s="3"/>
       <c r="G874" s="3"/>
       <c r="J874" s="4"/>
     </row>
-    <row r="875">
+    <row r="875" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C875" s="3"/>
       <c r="G875" s="3"/>
       <c r="J875" s="4"/>
     </row>
-    <row r="876">
+    <row r="876" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C876" s="3"/>
       <c r="G876" s="3"/>
       <c r="J876" s="4"/>
     </row>
-    <row r="877">
+    <row r="877" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C877" s="3"/>
       <c r="G877" s="3"/>
       <c r="J877" s="4"/>
     </row>
-    <row r="878">
+    <row r="878" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C878" s="3"/>
       <c r="G878" s="3"/>
       <c r="J878" s="4"/>
     </row>
-    <row r="879">
+    <row r="879" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C879" s="3"/>
       <c r="G879" s="3"/>
       <c r="J879" s="4"/>
     </row>
-    <row r="880">
+    <row r="880" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C880" s="3"/>
       <c r="G880" s="3"/>
       <c r="J880" s="4"/>
     </row>
-    <row r="881">
+    <row r="881" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C881" s="3"/>
       <c r="G881" s="3"/>
       <c r="J881" s="4"/>
     </row>
-    <row r="882">
+    <row r="882" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C882" s="3"/>
       <c r="G882" s="3"/>
       <c r="J882" s="4"/>
     </row>
-    <row r="883">
+    <row r="883" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C883" s="3"/>
       <c r="G883" s="3"/>
       <c r="J883" s="4"/>
     </row>
-    <row r="884">
+    <row r="884" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C884" s="3"/>
       <c r="G884" s="3"/>
       <c r="J884" s="4"/>
     </row>
-    <row r="885">
+    <row r="885" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C885" s="3"/>
       <c r="G885" s="3"/>
       <c r="J885" s="4"/>
     </row>
-    <row r="886">
+    <row r="886" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C886" s="3"/>
       <c r="G886" s="3"/>
       <c r="J886" s="4"/>
     </row>
-    <row r="887">
+    <row r="887" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C887" s="3"/>
       <c r="G887" s="3"/>
       <c r="J887" s="4"/>
     </row>
-    <row r="888">
+    <row r="888" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C888" s="3"/>
       <c r="G888" s="3"/>
       <c r="J888" s="4"/>
     </row>
-    <row r="889">
+    <row r="889" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C889" s="3"/>
       <c r="G889" s="3"/>
       <c r="J889" s="4"/>
     </row>
-    <row r="890">
+    <row r="890" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C890" s="3"/>
       <c r="G890" s="3"/>
       <c r="J890" s="4"/>
     </row>
-    <row r="891">
+    <row r="891" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C891" s="3"/>
       <c r="G891" s="3"/>
       <c r="J891" s="4"/>
     </row>
-    <row r="892">
+    <row r="892" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C892" s="3"/>
       <c r="G892" s="3"/>
       <c r="J892" s="4"/>
     </row>
-    <row r="893">
+    <row r="893" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C893" s="3"/>
       <c r="G893" s="3"/>
       <c r="J893" s="4"/>
     </row>
-    <row r="894">
+    <row r="894" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C894" s="3"/>
       <c r="G894" s="3"/>
       <c r="J894" s="4"/>
     </row>
-    <row r="895">
+    <row r="895" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C895" s="3"/>
       <c r="G895" s="3"/>
       <c r="J895" s="4"/>
     </row>
-    <row r="896">
+    <row r="896" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C896" s="3"/>
       <c r="G896" s="3"/>
       <c r="J896" s="4"/>
     </row>
-    <row r="897">
+    <row r="897" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C897" s="3"/>
       <c r="G897" s="3"/>
       <c r="J897" s="4"/>
     </row>
-    <row r="898">
+    <row r="898" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C898" s="3"/>
       <c r="G898" s="3"/>
       <c r="J898" s="4"/>
     </row>
-    <row r="899">
+    <row r="899" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C899" s="3"/>
       <c r="G899" s="3"/>
       <c r="J899" s="4"/>
     </row>
-    <row r="900">
+    <row r="900" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C900" s="3"/>
       <c r="G900" s="3"/>
       <c r="J900" s="4"/>
     </row>
-    <row r="901">
+    <row r="901" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C901" s="3"/>
       <c r="G901" s="3"/>
       <c r="J901" s="4"/>
     </row>
-    <row r="902">
+    <row r="902" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C902" s="3"/>
       <c r="G902" s="3"/>
       <c r="J902" s="4"/>
     </row>
-    <row r="903">
+    <row r="903" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C903" s="3"/>
       <c r="G903" s="3"/>
       <c r="J903" s="4"/>
     </row>
-    <row r="904">
+    <row r="904" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C904" s="3"/>
       <c r="G904" s="3"/>
       <c r="J904" s="4"/>
     </row>
-    <row r="905">
+    <row r="905" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C905" s="3"/>
       <c r="G905" s="3"/>
       <c r="J905" s="4"/>
     </row>
-    <row r="906">
+    <row r="906" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C906" s="3"/>
       <c r="G906" s="3"/>
       <c r="J906" s="4"/>
     </row>
-    <row r="907">
+    <row r="907" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C907" s="3"/>
       <c r="G907" s="3"/>
       <c r="J907" s="4"/>
     </row>
-    <row r="908">
+    <row r="908" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C908" s="3"/>
       <c r="G908" s="3"/>
       <c r="J908" s="4"/>
     </row>
-    <row r="909">
+    <row r="909" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C909" s="3"/>
       <c r="G909" s="3"/>
       <c r="J909" s="4"/>
     </row>
-    <row r="910">
+    <row r="910" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C910" s="3"/>
       <c r="G910" s="3"/>
       <c r="J910" s="4"/>
     </row>
-    <row r="911">
+    <row r="911" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C911" s="3"/>
       <c r="G911" s="3"/>
       <c r="J911" s="4"/>
     </row>
-    <row r="912">
+    <row r="912" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C912" s="3"/>
       <c r="G912" s="3"/>
       <c r="J912" s="4"/>
     </row>
-    <row r="913">
+    <row r="913" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C913" s="3"/>
       <c r="G913" s="3"/>
       <c r="J913" s="4"/>
     </row>
-    <row r="914">
+    <row r="914" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C914" s="3"/>
       <c r="G914" s="3"/>
       <c r="J914" s="4"/>
     </row>
-    <row r="915">
+    <row r="915" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C915" s="3"/>
       <c r="G915" s="3"/>
       <c r="J915" s="4"/>
     </row>
-    <row r="916">
+    <row r="916" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C916" s="3"/>
       <c r="G916" s="3"/>
       <c r="J916" s="4"/>
     </row>
-    <row r="917">
+    <row r="917" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C917" s="3"/>
       <c r="G917" s="3"/>
       <c r="J917" s="4"/>
     </row>
-    <row r="918">
+    <row r="918" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C918" s="3"/>
       <c r="G918" s="3"/>
       <c r="J918" s="4"/>
     </row>
-    <row r="919">
+    <row r="919" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C919" s="3"/>
       <c r="G919" s="3"/>
       <c r="J919" s="4"/>
     </row>
-    <row r="920">
+    <row r="920" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C920" s="3"/>
       <c r="G920" s="3"/>
       <c r="J920" s="4"/>
     </row>
-    <row r="921">
+    <row r="921" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C921" s="3"/>
       <c r="G921" s="3"/>
       <c r="J921" s="4"/>
     </row>
-    <row r="922">
+    <row r="922" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C922" s="3"/>
       <c r="G922" s="3"/>
       <c r="J922" s="4"/>
     </row>
-    <row r="923">
+    <row r="923" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C923" s="3"/>
       <c r="G923" s="3"/>
       <c r="J923" s="4"/>
     </row>
-    <row r="924">
+    <row r="924" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C924" s="3"/>
       <c r="G924" s="3"/>
       <c r="J924" s="4"/>
     </row>
-    <row r="925">
+    <row r="925" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C925" s="3"/>
       <c r="G925" s="3"/>
       <c r="J925" s="4"/>
     </row>
-    <row r="926">
+    <row r="926" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C926" s="3"/>
       <c r="G926" s="3"/>
       <c r="J926" s="4"/>
     </row>
-    <row r="927">
+    <row r="927" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C927" s="3"/>
       <c r="G927" s="3"/>
       <c r="J927" s="4"/>
     </row>
-    <row r="928">
+    <row r="928" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C928" s="3"/>
       <c r="G928" s="3"/>
       <c r="J928" s="4"/>
     </row>
-    <row r="929">
+    <row r="929" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C929" s="3"/>
       <c r="G929" s="3"/>
       <c r="J929" s="4"/>
     </row>
-    <row r="930">
+    <row r="930" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C930" s="3"/>
       <c r="G930" s="3"/>
       <c r="J930" s="4"/>
     </row>
-    <row r="931">
+    <row r="931" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C931" s="3"/>
       <c r="G931" s="3"/>
       <c r="J931" s="4"/>
     </row>
-    <row r="932">
+    <row r="932" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C932" s="3"/>
       <c r="G932" s="3"/>
       <c r="J932" s="4"/>
     </row>
-    <row r="933">
+    <row r="933" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C933" s="3"/>
       <c r="G933" s="3"/>
       <c r="J933" s="4"/>
     </row>
-    <row r="934">
+    <row r="934" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C934" s="3"/>
       <c r="G934" s="3"/>
       <c r="J934" s="4"/>
     </row>
-    <row r="935">
+    <row r="935" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C935" s="3"/>
       <c r="G935" s="3"/>
       <c r="J935" s="4"/>
     </row>
-    <row r="936">
+    <row r="936" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C936" s="3"/>
       <c r="G936" s="3"/>
       <c r="J936" s="4"/>
     </row>
-    <row r="937">
+    <row r="937" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C937" s="3"/>
       <c r="G937" s="3"/>
       <c r="J937" s="4"/>
     </row>
-    <row r="938">
+    <row r="938" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C938" s="3"/>
       <c r="G938" s="3"/>
       <c r="J938" s="4"/>
     </row>
-    <row r="939">
+    <row r="939" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C939" s="3"/>
       <c r="G939" s="3"/>
       <c r="J939" s="4"/>
     </row>
-    <row r="940">
+    <row r="940" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C940" s="3"/>
       <c r="G940" s="3"/>
       <c r="J940" s="4"/>
     </row>
-    <row r="941">
+    <row r="941" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C941" s="3"/>
       <c r="G941" s="3"/>
       <c r="J941" s="4"/>
     </row>
-    <row r="942">
+    <row r="942" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C942" s="3"/>
       <c r="G942" s="3"/>
       <c r="J942" s="4"/>
     </row>
-    <row r="943">
+    <row r="943" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C943" s="3"/>
       <c r="G943" s="3"/>
       <c r="J943" s="4"/>
     </row>
-    <row r="944">
+    <row r="944" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C944" s="3"/>
       <c r="G944" s="3"/>
       <c r="J944" s="4"/>
     </row>
-    <row r="945">
+    <row r="945" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C945" s="3"/>
       <c r="G945" s="3"/>
       <c r="J945" s="4"/>
     </row>
-    <row r="946">
+    <row r="946" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C946" s="3"/>
       <c r="G946" s="3"/>
       <c r="J946" s="4"/>
     </row>
-    <row r="947">
+    <row r="947" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C947" s="3"/>
       <c r="G947" s="3"/>
       <c r="J947" s="4"/>
     </row>
-    <row r="948">
+    <row r="948" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C948" s="3"/>
       <c r="G948" s="3"/>
       <c r="J948" s="4"/>
     </row>
-    <row r="949">
+    <row r="949" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C949" s="3"/>
       <c r="G949" s="3"/>
       <c r="J949" s="4"/>
     </row>
-    <row r="950">
+    <row r="950" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C950" s="3"/>
       <c r="G950" s="3"/>
       <c r="J950" s="4"/>
     </row>
-    <row r="951">
+    <row r="951" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C951" s="3"/>
       <c r="G951" s="3"/>
       <c r="J951" s="4"/>
     </row>
-    <row r="952">
+    <row r="952" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C952" s="3"/>
       <c r="G952" s="3"/>
       <c r="J952" s="4"/>
     </row>
-    <row r="953">
+    <row r="953" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C953" s="3"/>
       <c r="G953" s="3"/>
       <c r="J953" s="4"/>
     </row>
-    <row r="954">
+    <row r="954" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C954" s="3"/>
       <c r="G954" s="3"/>
       <c r="J954" s="4"/>
     </row>
-    <row r="955">
+    <row r="955" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C955" s="3"/>
       <c r="G955" s="3"/>
       <c r="J955" s="4"/>
     </row>
-    <row r="956">
+    <row r="956" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C956" s="3"/>
       <c r="G956" s="3"/>
       <c r="J956" s="4"/>
     </row>
-    <row r="957">
+    <row r="957" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C957" s="3"/>
       <c r="G957" s="3"/>
       <c r="J957" s="4"/>
     </row>
-    <row r="958">
+    <row r="958" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C958" s="3"/>
       <c r="G958" s="3"/>
       <c r="J958" s="4"/>
     </row>
-    <row r="959">
+    <row r="959" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C959" s="3"/>
       <c r="G959" s="3"/>
       <c r="J959" s="4"/>
     </row>
-    <row r="960">
+    <row r="960" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C960" s="3"/>
       <c r="G960" s="3"/>
       <c r="J960" s="4"/>
     </row>
-    <row r="961">
+    <row r="961" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C961" s="3"/>
       <c r="G961" s="3"/>
       <c r="J961" s="4"/>
     </row>
-    <row r="962">
+    <row r="962" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C962" s="3"/>
       <c r="G962" s="3"/>
       <c r="J962" s="4"/>
     </row>
-    <row r="963">
+    <row r="963" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C963" s="3"/>
       <c r="G963" s="3"/>
       <c r="J963" s="4"/>
     </row>
-    <row r="964">
+    <row r="964" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C964" s="3"/>
       <c r="G964" s="3"/>
       <c r="J964" s="4"/>
     </row>
-    <row r="965">
+    <row r="965" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C965" s="3"/>
       <c r="G965" s="3"/>
       <c r="J965" s="4"/>
     </row>
-    <row r="966">
+    <row r="966" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C966" s="3"/>
       <c r="G966" s="3"/>
       <c r="J966" s="4"/>
     </row>
-    <row r="967">
+    <row r="967" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C967" s="3"/>
       <c r="G967" s="3"/>
       <c r="J967" s="4"/>
     </row>
-    <row r="968">
+    <row r="968" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C968" s="3"/>
       <c r="G968" s="3"/>
       <c r="J968" s="4"/>
     </row>
-    <row r="969">
+    <row r="969" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C969" s="3"/>
       <c r="G969" s="3"/>
       <c r="J969" s="4"/>
     </row>
-    <row r="970">
+    <row r="970" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C970" s="3"/>
       <c r="G970" s="3"/>
       <c r="J970" s="4"/>
     </row>
-    <row r="971">
+    <row r="971" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C971" s="3"/>
       <c r="G971" s="3"/>
       <c r="J971" s="4"/>
     </row>
-    <row r="972">
+    <row r="972" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C972" s="3"/>
       <c r="G972" s="3"/>
       <c r="J972" s="4"/>
     </row>
-    <row r="973">
+    <row r="973" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C973" s="3"/>
       <c r="G973" s="3"/>
       <c r="J973" s="4"/>
     </row>
-    <row r="974">
+    <row r="974" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C974" s="3"/>
       <c r="G974" s="3"/>
       <c r="J974" s="4"/>
     </row>
-    <row r="975">
+    <row r="975" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C975" s="3"/>
       <c r="G975" s="3"/>
       <c r="J975" s="4"/>
     </row>
-    <row r="976">
+    <row r="976" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C976" s="3"/>
       <c r="G976" s="3"/>
       <c r="J976" s="4"/>
     </row>
-    <row r="977">
+    <row r="977" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C977" s="3"/>
       <c r="G977" s="3"/>
       <c r="J977" s="4"/>
     </row>
-    <row r="978">
+    <row r="978" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C978" s="3"/>
       <c r="G978" s="3"/>
       <c r="J978" s="4"/>
     </row>
-    <row r="979">
+    <row r="979" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C979" s="3"/>
       <c r="G979" s="3"/>
       <c r="J979" s="4"/>
     </row>
-    <row r="980">
+    <row r="980" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C980" s="3"/>
       <c r="G980" s="3"/>
       <c r="J980" s="4"/>
     </row>
-    <row r="981">
+    <row r="981" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C981" s="3"/>
       <c r="G981" s="3"/>
       <c r="J981" s="4"/>
     </row>
-    <row r="982">
+    <row r="982" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C982" s="3"/>
       <c r="G982" s="3"/>
       <c r="J982" s="4"/>
     </row>
-    <row r="983">
+    <row r="983" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C983" s="3"/>
       <c r="G983" s="3"/>
       <c r="J983" s="4"/>
     </row>
-    <row r="984">
+    <row r="984" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C984" s="3"/>
       <c r="G984" s="3"/>
       <c r="J984" s="4"/>
     </row>
-    <row r="985">
+    <row r="985" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C985" s="3"/>
       <c r="G985" s="3"/>
       <c r="J985" s="4"/>
     </row>
-    <row r="986">
+    <row r="986" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C986" s="3"/>
       <c r="G986" s="3"/>
       <c r="J986" s="4"/>
     </row>
-    <row r="987">
+    <row r="987" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C987" s="3"/>
       <c r="G987" s="3"/>
       <c r="J987" s="4"/>
     </row>
-    <row r="988">
+    <row r="988" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C988" s="3"/>
       <c r="G988" s="3"/>
       <c r="J988" s="4"/>
     </row>
-    <row r="989">
+    <row r="989" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C989" s="3"/>
       <c r="G989" s="3"/>
       <c r="J989" s="4"/>
     </row>
-    <row r="990">
+    <row r="990" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C990" s="3"/>
       <c r="G990" s="3"/>
       <c r="J990" s="4"/>
     </row>
-    <row r="991">
+    <row r="991" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C991" s="3"/>
       <c r="G991" s="3"/>
       <c r="J991" s="4"/>
     </row>
-    <row r="992">
+    <row r="992" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C992" s="3"/>
       <c r="G992" s="3"/>
       <c r="J992" s="4"/>
     </row>
-    <row r="993">
+    <row r="993" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C993" s="3"/>
       <c r="G993" s="3"/>
       <c r="J993" s="4"/>
     </row>
-    <row r="994">
+    <row r="994" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C994" s="3"/>
       <c r="G994" s="3"/>
       <c r="J994" s="4"/>
     </row>
-    <row r="995">
+    <row r="995" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C995" s="3"/>
       <c r="G995" s="3"/>
       <c r="J995" s="4"/>
     </row>
-    <row r="996">
+    <row r="996" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C996" s="3"/>
       <c r="G996" s="3"/>
       <c r="J996" s="4"/>
     </row>
-    <row r="997">
+    <row r="997" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C997" s="3"/>
       <c r="G997" s="3"/>
       <c r="J997" s="4"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD047233-9BAB-453C-9B3B-291B69F63DB9}">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10">
+        <v>22297.88</v>
+      </c>
+      <c r="D3" s="48">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C4" s="10">
+        <v>56480.639999999999</v>
+      </c>
+      <c r="D4" s="48">
+        <v>0.11269999999999999</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C5" s="10">
+        <v>13984.97</v>
+      </c>
+      <c r="D5" s="47"/>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C6" s="10"/>
+      <c r="D6" s="47"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="10">
+        <v>7023.98</v>
+      </c>
+      <c r="D7" s="48">
+        <v>0.1244</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C8" s="10"/>
+      <c r="D8" s="47"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="10">
+        <v>28954.07</v>
+      </c>
+      <c r="D9" s="48">
+        <v>0.11269999999999999</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C10" s="10"/>
+      <c r="D10" s="47"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="47"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="10">
+        <v>55111.839999999997</v>
+      </c>
+      <c r="D12" s="48">
+        <v>-4.7500000000000001E-2</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C13" s="10">
+        <v>11343</v>
+      </c>
+      <c r="D13" s="48">
+        <v>-7.2999999999999995E-2</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C14" s="10"/>
+      <c r="D14" s="47"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="10">
+        <v>7952.36</v>
+      </c>
+      <c r="D15" s="48">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C16" s="10">
+        <v>5132.34</v>
+      </c>
+      <c r="D16" s="48">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C17" s="10">
+        <v>14941.97</v>
+      </c>
+      <c r="D17" s="48">
+        <v>-4.7500000000000001E-2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C18" s="10">
+        <v>792.18</v>
+      </c>
+      <c r="D18" s="47"/>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C19" s="10"/>
+      <c r="D19" s="47"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="10">
+        <v>23163</v>
+      </c>
+      <c r="D20" s="47"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C21" s="10"/>
+      <c r="D21" s="47"/>
+    </row>
+    <row r="22" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="44">
+        <f>SUM(C3:C20)</f>
+        <v>247178.22999999998</v>
+      </c>
+      <c r="D22" s="48">
+        <f>SUM(D3,D4,D7,D12,D13,D15)</f>
+        <v>0.15339999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="10">
+        <f>SUM(C4,C7,C9)</f>
+        <v>92458.69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C28" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="10">
+        <f>SUM(C12,C17)</f>
+        <v>70053.81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="10">
+        <f>SUM(C3,C16)</f>
+        <v>27430.22</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="10">
+        <f>SUM(C15)</f>
+        <v>7952.36</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="10">
+        <f>SUM(C5,C18,C20)</f>
+        <v>37940.15</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="10">
+        <f>SUM(C13)</f>
+        <v>11343</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>